--- a/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32697292629385</v>
+        <v>25.32697292629386</v>
       </c>
       <c r="C2">
-        <v>14.84060702851123</v>
+        <v>14.84060702851128</v>
       </c>
       <c r="D2">
-        <v>2.856488370150306</v>
+        <v>2.856488370150311</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.4985986817514</v>
+        <v>36.49859868175142</v>
       </c>
       <c r="G2">
-        <v>27.21603276053723</v>
+        <v>27.21603276053724</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.61631107832145</v>
+        <v>11.61631107832146</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.51945200474174</v>
+        <v>23.51945200474183</v>
       </c>
       <c r="C3">
-        <v>13.87732998220339</v>
+        <v>13.8773299822035</v>
       </c>
       <c r="D3">
-        <v>2.875866778634321</v>
+        <v>2.875866778634521</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.49080455465326</v>
+        <v>34.49080455465327</v>
       </c>
       <c r="G3">
-        <v>25.87706581805529</v>
+        <v>25.87706581805528</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.94422433370248</v>
+        <v>10.94422433370251</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.44682998783061</v>
+        <v>16.44682998783065</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.35410217541515</v>
+        <v>22.35410217541508</v>
       </c>
       <c r="C4">
-        <v>13.25739369320159</v>
+        <v>13.25739369320173</v>
       </c>
       <c r="D4">
-        <v>2.887452486185927</v>
+        <v>2.887452486185924</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.25245033199994</v>
+        <v>33.25245033199997</v>
       </c>
       <c r="G4">
-        <v>25.06064969914762</v>
+        <v>25.06064969914765</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.52754744040021</v>
+        <v>10.52754744040023</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.61921769984965</v>
+        <v>15.61921769984968</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>21.86497400944428</v>
       </c>
       <c r="C5">
-        <v>12.99750878624683</v>
+        <v>12.9975087862465</v>
       </c>
       <c r="D5">
-        <v>2.892108075118619</v>
+        <v>2.892108075118621</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.7467237330311</v>
+        <v>32.74672373303125</v>
       </c>
       <c r="G5">
-        <v>24.72957373485732</v>
+        <v>24.72957373485744</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.35681387602014</v>
+        <v>10.35681387602012</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.27264263003522</v>
+        <v>15.27264263003519</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.78288696831002</v>
+        <v>21.78288696831004</v>
       </c>
       <c r="C6">
         <v>12.95391452920035</v>
       </c>
       <c r="D6">
-        <v>2.892877526010522</v>
+        <v>2.89287752601039</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.66269423213861</v>
+        <v>32.66269423213867</v>
       </c>
       <c r="G6">
-        <v>24.67470341912427</v>
+        <v>24.67470341912431</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.32841040727478</v>
+        <v>10.32841040727476</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.21452456126596</v>
+        <v>15.21452456126597</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.3475636249823</v>
+        <v>22.34756362498229</v>
       </c>
       <c r="C7">
-        <v>13.25391828190011</v>
+        <v>13.25391828189995</v>
       </c>
       <c r="D7">
-        <v>2.887515522594541</v>
+        <v>2.887515522594211</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.24563381904316</v>
+        <v>33.24563381904325</v>
       </c>
       <c r="G7">
-        <v>25.05617783759888</v>
+        <v>25.0561778375989</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.52524851600861</v>
+        <v>10.52524851600858</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.61458170179787</v>
+        <v>15.61458170179783</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.71509062921137</v>
+        <v>24.71509062921136</v>
       </c>
       <c r="C8">
-        <v>14.51431654343676</v>
+        <v>14.5143165434368</v>
       </c>
       <c r="D8">
-        <v>2.863243061148394</v>
+        <v>2.863243061148519</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.80760880740998</v>
+        <v>35.80760880741007</v>
       </c>
       <c r="G8">
-        <v>26.75325653062724</v>
+        <v>26.75325653062733</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.38543749405891</v>
+        <v>11.38543749405893</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.93096205984091</v>
+        <v>28.93096205984084</v>
       </c>
       <c r="C9">
-        <v>16.76543130044143</v>
+        <v>16.76543130044157</v>
       </c>
       <c r="D9">
-        <v>2.812520808049393</v>
+        <v>2.812520808049582</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.78158906170352</v>
+        <v>40.78158906170357</v>
       </c>
       <c r="G9">
-        <v>30.1230970403261</v>
+        <v>30.12309704032616</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.34451833277115</v>
+        <v>13.34451833277114</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.3279030015753</v>
+        <v>20.32790300157535</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.78956342849848</v>
+        <v>31.7895634284983</v>
       </c>
       <c r="C10">
-        <v>18.29433284308532</v>
+        <v>18.29433284308512</v>
       </c>
       <c r="D10">
-        <v>2.772345032215243</v>
+        <v>2.772345032215174</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.40975153191086</v>
+        <v>44.4097515319107</v>
       </c>
       <c r="G10">
-        <v>32.6277024412822</v>
+        <v>32.62770244128213</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.77645100711608</v>
+        <v>14.77645100711603</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.40624968192419</v>
+        <v>22.40624968192408</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.04372352429057</v>
+        <v>33.04372352429063</v>
       </c>
       <c r="C11">
-        <v>18.96539482051471</v>
+        <v>18.9653948205148</v>
       </c>
       <c r="D11">
-        <v>2.753173273821657</v>
+        <v>2.753173273821523</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>46.13043923537907</v>
+        <v>46.13043923537916</v>
       </c>
       <c r="G11">
-        <v>33.79283958821489</v>
+        <v>33.79283958821497</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.41323915518192</v>
+        <v>15.41323915518195</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.32502082796746</v>
+        <v>23.32502082796747</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.51253637233905</v>
+        <v>33.51253637233904</v>
       </c>
       <c r="C12">
-        <v>19.21626450823872</v>
+        <v>19.21626450823862</v>
       </c>
       <c r="D12">
-        <v>2.745758746006003</v>
+        <v>2.745758746006007</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.80100150164314</v>
+        <v>46.80100150164292</v>
       </c>
       <c r="G12">
-        <v>34.29384559331294</v>
+        <v>34.29384559331275</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.41183143752077</v>
+        <v>33.41183143752098</v>
       </c>
       <c r="C13">
-        <v>19.16237485615435</v>
+        <v>19.16237485615439</v>
       </c>
       <c r="D13">
-        <v>2.747362927879777</v>
+        <v>2.747362927879687</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.65664391887655</v>
+        <v>46.65664391887703</v>
       </c>
       <c r="G13">
-        <v>34.1859872908234</v>
+        <v>34.1859872908238</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.60118658236899</v>
+        <v>15.60118658236914</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.595541503074</v>
+        <v>23.59554150307415</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.0824121236945</v>
+        <v>33.08241212369465</v>
       </c>
       <c r="C14">
-        <v>18.98609738798029</v>
+        <v>18.98609738798018</v>
       </c>
       <c r="D14">
-        <v>2.752566536871298</v>
+        <v>2.752566536871158</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>46.18563525326063</v>
+        <v>46.1856352532611</v>
       </c>
       <c r="G14">
-        <v>33.83407782686032</v>
+        <v>33.83407782686071</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.43297002778918</v>
+        <v>15.43297002778925</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.35343436230124</v>
+        <v>23.35343436230129</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.87985489927497</v>
+        <v>32.87985489927508</v>
       </c>
       <c r="C15">
-        <v>18.87770826950534</v>
+        <v>18.87770826950524</v>
       </c>
       <c r="D15">
-        <v>2.755732929498484</v>
+        <v>2.755732929498284</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.89693665042597</v>
+        <v>45.89693665042614</v>
       </c>
       <c r="G15">
-        <v>33.62484335347009</v>
+        <v>33.62484335347018</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.32972604982389</v>
+        <v>15.32972604982399</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.70671495867173</v>
+        <v>31.70671495867183</v>
       </c>
       <c r="C16">
-        <v>18.25000735889696</v>
+        <v>18.25000735889692</v>
       </c>
       <c r="D16">
-        <v>2.773577812265219</v>
+        <v>2.773577812265153</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.30198327780255</v>
+        <v>44.30198327780253</v>
       </c>
       <c r="G16">
-        <v>32.55284593899294</v>
+        <v>32.55284593899292</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.73457516224285</v>
+        <v>14.73457516224284</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.3457111153279</v>
+        <v>22.34571111532789</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.97554849819761</v>
+        <v>30.97554849819773</v>
       </c>
       <c r="C17">
-        <v>17.85884907924209</v>
+        <v>17.85884907924207</v>
       </c>
       <c r="D17">
-        <v>2.784278520409111</v>
+        <v>2.784278520408969</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.35748084109661</v>
+        <v>43.35748084109671</v>
       </c>
       <c r="G17">
-        <v>31.89793141105154</v>
+        <v>31.89793141105161</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.81224423900851</v>
+        <v>21.81224423900849</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.55061283943244</v>
+        <v>30.55061283943242</v>
       </c>
       <c r="C18">
-        <v>17.63154590731205</v>
+        <v>17.63154590731206</v>
       </c>
       <c r="D18">
-        <v>2.790350741413116</v>
+        <v>2.790350741413186</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.81408521897779</v>
+        <v>42.81408521897771</v>
       </c>
       <c r="G18">
-        <v>31.52210417187015</v>
+        <v>31.52210417187011</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.15260350213183</v>
+        <v>14.15260350213173</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.50286178046892</v>
+        <v>21.50286178046884</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>30.40596817023307</v>
       </c>
       <c r="C19">
-        <v>17.55417920059219</v>
+        <v>17.55417920059223</v>
       </c>
       <c r="D19">
-        <v>2.792393238280723</v>
+        <v>2.792393238280843</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.63006022388425</v>
+        <v>42.63006022388442</v>
       </c>
       <c r="G19">
-        <v>31.3949923716166</v>
+        <v>31.39499237161674</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.08009844083246</v>
+        <v>14.0800984408325</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.39765847691936</v>
+        <v>21.39765847691941</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.053832921957</v>
+        <v>31.05383292195696</v>
       </c>
       <c r="C20">
-        <v>17.90072678859693</v>
+        <v>17.90072678859686</v>
       </c>
       <c r="D20">
-        <v>2.783148129219568</v>
+        <v>2.783148129219567</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.45803555087029</v>
+        <v>43.45803555087036</v>
       </c>
       <c r="G20">
-        <v>31.9675561535051</v>
+        <v>31.96755615350514</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.40537855177456</v>
+        <v>14.40537855177463</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.86929277654263</v>
+        <v>21.86929277654266</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.17933169596428</v>
+        <v>33.17933169596438</v>
       </c>
       <c r="C21">
-        <v>19.03796009989657</v>
+        <v>19.03796009989674</v>
       </c>
       <c r="D21">
-        <v>2.751042532434928</v>
+        <v>2.751042532434991</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.32402025247606</v>
+        <v>46.32402025247637</v>
       </c>
       <c r="G21">
-        <v>33.93746932921266</v>
+        <v>33.9374693292129</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.48242150138234</v>
+        <v>15.48242150138235</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.42463270826747</v>
+        <v>23.42463270826751</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.53316539235355</v>
+        <v>34.5331653923536</v>
       </c>
       <c r="C22">
-        <v>19.7624430786542</v>
+        <v>19.76244307865419</v>
       </c>
       <c r="D22">
-        <v>2.729143462243644</v>
+        <v>2.729143462243516</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.27365999408214</v>
+        <v>48.27365999408204</v>
       </c>
       <c r="G22">
-        <v>35.39424937363362</v>
+        <v>35.39424937363356</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.17673460654741</v>
+        <v>16.17673460654743</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.42208255379581</v>
+        <v>24.42208255379579</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.81362873243275</v>
+        <v>33.81362873243282</v>
       </c>
       <c r="C23">
-        <v>19.3773883125348</v>
+        <v>19.37738831253471</v>
       </c>
       <c r="D23">
-        <v>2.740924875209969</v>
+        <v>2.74092487521004</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.23363076841519</v>
+        <v>47.23363076841537</v>
       </c>
       <c r="G23">
-        <v>34.61709811471149</v>
+        <v>34.6170981147116</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.80688947114867</v>
+        <v>15.80688947114865</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.89127465366585</v>
+        <v>23.89127465366587</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.01845483382262</v>
+        <v>31.01845483382259</v>
       </c>
       <c r="C24">
-        <v>17.88180143678744</v>
+        <v>17.88180143678748</v>
       </c>
       <c r="D24">
-        <v>2.783659425627554</v>
+        <v>2.783659425627633</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>43.41257602278154</v>
       </c>
       <c r="G24">
-        <v>31.93607668480508</v>
+        <v>31.93607668480506</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.38758054123871</v>
+        <v>14.38758054123872</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.84350953416813</v>
+        <v>21.84350953416818</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.8340911238104</v>
+        <v>27.83409112381051</v>
       </c>
       <c r="C25">
-        <v>16.17918276580563</v>
+        <v>16.17918276580556</v>
       </c>
       <c r="D25">
-        <v>2.826673587944442</v>
+        <v>2.82667358794451</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.44154061649632</v>
+        <v>39.4415406164963</v>
       </c>
       <c r="G25">
-        <v>29.20706428038825</v>
+        <v>29.20706428038823</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.80185107118164</v>
+        <v>12.80185107118171</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.53587058537445</v>
+        <v>19.53587058537451</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32697292629386</v>
+        <v>25.32697292629385</v>
       </c>
       <c r="C2">
-        <v>14.84060702851128</v>
+        <v>14.84060702851123</v>
       </c>
       <c r="D2">
-        <v>2.856488370150311</v>
+        <v>2.856488370150306</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.49859868175142</v>
+        <v>36.4985986817514</v>
       </c>
       <c r="G2">
-        <v>27.21603276053724</v>
+        <v>27.21603276053723</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.61631107832146</v>
+        <v>11.61631107832145</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.51945200474183</v>
+        <v>23.51945200474174</v>
       </c>
       <c r="C3">
-        <v>13.8773299822035</v>
+        <v>13.87732998220339</v>
       </c>
       <c r="D3">
-        <v>2.875866778634521</v>
+        <v>2.875866778634321</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.49080455465327</v>
+        <v>34.49080455465326</v>
       </c>
       <c r="G3">
-        <v>25.87706581805528</v>
+        <v>25.87706581805529</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.94422433370251</v>
+        <v>10.94422433370248</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.44682998783065</v>
+        <v>16.44682998783061</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.35410217541508</v>
+        <v>22.35410217541515</v>
       </c>
       <c r="C4">
-        <v>13.25739369320173</v>
+        <v>13.25739369320159</v>
       </c>
       <c r="D4">
-        <v>2.887452486185924</v>
+        <v>2.887452486185927</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.25245033199997</v>
+        <v>33.25245033199994</v>
       </c>
       <c r="G4">
-        <v>25.06064969914765</v>
+        <v>25.06064969914762</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.52754744040023</v>
+        <v>10.52754744040021</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.61921769984968</v>
+        <v>15.61921769984965</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>21.86497400944428</v>
       </c>
       <c r="C5">
-        <v>12.9975087862465</v>
+        <v>12.99750878624683</v>
       </c>
       <c r="D5">
-        <v>2.892108075118621</v>
+        <v>2.892108075118619</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.74672373303125</v>
+        <v>32.7467237330311</v>
       </c>
       <c r="G5">
-        <v>24.72957373485744</v>
+        <v>24.72957373485732</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.35681387602012</v>
+        <v>10.35681387602014</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.27264263003519</v>
+        <v>15.27264263003522</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.78288696831004</v>
+        <v>21.78288696831002</v>
       </c>
       <c r="C6">
         <v>12.95391452920035</v>
       </c>
       <c r="D6">
-        <v>2.89287752601039</v>
+        <v>2.892877526010522</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.66269423213867</v>
+        <v>32.66269423213861</v>
       </c>
       <c r="G6">
-        <v>24.67470341912431</v>
+        <v>24.67470341912427</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.32841040727476</v>
+        <v>10.32841040727478</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.21452456126597</v>
+        <v>15.21452456126596</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.34756362498229</v>
+        <v>22.3475636249823</v>
       </c>
       <c r="C7">
-        <v>13.25391828189995</v>
+        <v>13.25391828190011</v>
       </c>
       <c r="D7">
-        <v>2.887515522594211</v>
+        <v>2.887515522594541</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.24563381904325</v>
+        <v>33.24563381904316</v>
       </c>
       <c r="G7">
-        <v>25.0561778375989</v>
+        <v>25.05617783759888</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.52524851600858</v>
+        <v>10.52524851600861</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.61458170179783</v>
+        <v>15.61458170179787</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.71509062921136</v>
+        <v>24.71509062921137</v>
       </c>
       <c r="C8">
-        <v>14.5143165434368</v>
+        <v>14.51431654343676</v>
       </c>
       <c r="D8">
-        <v>2.863243061148519</v>
+        <v>2.863243061148394</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.80760880741007</v>
+        <v>35.80760880740998</v>
       </c>
       <c r="G8">
-        <v>26.75325653062733</v>
+        <v>26.75325653062724</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.38543749405893</v>
+        <v>11.38543749405891</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.93096205984084</v>
+        <v>28.93096205984091</v>
       </c>
       <c r="C9">
-        <v>16.76543130044157</v>
+        <v>16.76543130044143</v>
       </c>
       <c r="D9">
-        <v>2.812520808049582</v>
+        <v>2.812520808049393</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.78158906170357</v>
+        <v>40.78158906170352</v>
       </c>
       <c r="G9">
-        <v>30.12309704032616</v>
+        <v>30.1230970403261</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.34451833277114</v>
+        <v>13.34451833277115</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.32790300157535</v>
+        <v>20.3279030015753</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.7895634284983</v>
+        <v>31.78956342849848</v>
       </c>
       <c r="C10">
-        <v>18.29433284308512</v>
+        <v>18.29433284308532</v>
       </c>
       <c r="D10">
-        <v>2.772345032215174</v>
+        <v>2.772345032215243</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.4097515319107</v>
+        <v>44.40975153191086</v>
       </c>
       <c r="G10">
-        <v>32.62770244128213</v>
+        <v>32.6277024412822</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.77645100711603</v>
+        <v>14.77645100711608</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.40624968192408</v>
+        <v>22.40624968192419</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.04372352429063</v>
+        <v>33.04372352429057</v>
       </c>
       <c r="C11">
-        <v>18.9653948205148</v>
+        <v>18.96539482051471</v>
       </c>
       <c r="D11">
-        <v>2.753173273821523</v>
+        <v>2.753173273821657</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>46.13043923537916</v>
+        <v>46.13043923537907</v>
       </c>
       <c r="G11">
-        <v>33.79283958821497</v>
+        <v>33.79283958821489</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.41323915518195</v>
+        <v>15.41323915518192</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.32502082796747</v>
+        <v>23.32502082796746</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.51253637233904</v>
+        <v>33.51253637233905</v>
       </c>
       <c r="C12">
-        <v>19.21626450823862</v>
+        <v>19.21626450823872</v>
       </c>
       <c r="D12">
-        <v>2.745758746006007</v>
+        <v>2.745758746006003</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.80100150164292</v>
+        <v>46.80100150164314</v>
       </c>
       <c r="G12">
-        <v>34.29384559331275</v>
+        <v>34.29384559331294</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.41183143752098</v>
+        <v>33.41183143752077</v>
       </c>
       <c r="C13">
-        <v>19.16237485615439</v>
+        <v>19.16237485615435</v>
       </c>
       <c r="D13">
-        <v>2.747362927879687</v>
+        <v>2.747362927879777</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.65664391887703</v>
+        <v>46.65664391887655</v>
       </c>
       <c r="G13">
-        <v>34.1859872908238</v>
+        <v>34.1859872908234</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.60118658236914</v>
+        <v>15.60118658236899</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.59554150307415</v>
+        <v>23.595541503074</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.08241212369465</v>
+        <v>33.0824121236945</v>
       </c>
       <c r="C14">
-        <v>18.98609738798018</v>
+        <v>18.98609738798029</v>
       </c>
       <c r="D14">
-        <v>2.752566536871158</v>
+        <v>2.752566536871298</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>46.1856352532611</v>
+        <v>46.18563525326063</v>
       </c>
       <c r="G14">
-        <v>33.83407782686071</v>
+        <v>33.83407782686032</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.43297002778925</v>
+        <v>15.43297002778918</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.35343436230129</v>
+        <v>23.35343436230124</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.87985489927508</v>
+        <v>32.87985489927497</v>
       </c>
       <c r="C15">
-        <v>18.87770826950524</v>
+        <v>18.87770826950534</v>
       </c>
       <c r="D15">
-        <v>2.755732929498284</v>
+        <v>2.755732929498484</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.89693665042614</v>
+        <v>45.89693665042597</v>
       </c>
       <c r="G15">
-        <v>33.62484335347018</v>
+        <v>33.62484335347009</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.32972604982399</v>
+        <v>15.32972604982389</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.70671495867183</v>
+        <v>31.70671495867173</v>
       </c>
       <c r="C16">
-        <v>18.25000735889692</v>
+        <v>18.25000735889696</v>
       </c>
       <c r="D16">
-        <v>2.773577812265153</v>
+        <v>2.773577812265219</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.30198327780253</v>
+        <v>44.30198327780255</v>
       </c>
       <c r="G16">
-        <v>32.55284593899292</v>
+        <v>32.55284593899294</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.73457516224284</v>
+        <v>14.73457516224285</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.34571111532789</v>
+        <v>22.3457111153279</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.97554849819773</v>
+        <v>30.97554849819761</v>
       </c>
       <c r="C17">
-        <v>17.85884907924207</v>
+        <v>17.85884907924209</v>
       </c>
       <c r="D17">
-        <v>2.784278520408969</v>
+        <v>2.784278520409111</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.35748084109671</v>
+        <v>43.35748084109661</v>
       </c>
       <c r="G17">
-        <v>31.89793141105161</v>
+        <v>31.89793141105154</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.81224423900849</v>
+        <v>21.81224423900851</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.55061283943242</v>
+        <v>30.55061283943244</v>
       </c>
       <c r="C18">
-        <v>17.63154590731206</v>
+        <v>17.63154590731205</v>
       </c>
       <c r="D18">
-        <v>2.790350741413186</v>
+        <v>2.790350741413116</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.81408521897771</v>
+        <v>42.81408521897779</v>
       </c>
       <c r="G18">
-        <v>31.52210417187011</v>
+        <v>31.52210417187015</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.15260350213173</v>
+        <v>14.15260350213183</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.50286178046884</v>
+        <v>21.50286178046892</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>30.40596817023307</v>
       </c>
       <c r="C19">
-        <v>17.55417920059223</v>
+        <v>17.55417920059219</v>
       </c>
       <c r="D19">
-        <v>2.792393238280843</v>
+        <v>2.792393238280723</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.63006022388442</v>
+        <v>42.63006022388425</v>
       </c>
       <c r="G19">
-        <v>31.39499237161674</v>
+        <v>31.3949923716166</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.0800984408325</v>
+        <v>14.08009844083246</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.39765847691941</v>
+        <v>21.39765847691936</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.05383292195696</v>
+        <v>31.053832921957</v>
       </c>
       <c r="C20">
-        <v>17.90072678859686</v>
+        <v>17.90072678859693</v>
       </c>
       <c r="D20">
-        <v>2.783148129219567</v>
+        <v>2.783148129219568</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.45803555087036</v>
+        <v>43.45803555087029</v>
       </c>
       <c r="G20">
-        <v>31.96755615350514</v>
+        <v>31.9675561535051</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.40537855177463</v>
+        <v>14.40537855177456</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.86929277654266</v>
+        <v>21.86929277654263</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.17933169596438</v>
+        <v>33.17933169596428</v>
       </c>
       <c r="C21">
-        <v>19.03796009989674</v>
+        <v>19.03796009989657</v>
       </c>
       <c r="D21">
-        <v>2.751042532434991</v>
+        <v>2.751042532434928</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.32402025247637</v>
+        <v>46.32402025247606</v>
       </c>
       <c r="G21">
-        <v>33.9374693292129</v>
+        <v>33.93746932921266</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.48242150138235</v>
+        <v>15.48242150138234</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.42463270826751</v>
+        <v>23.42463270826747</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.5331653923536</v>
+        <v>34.53316539235355</v>
       </c>
       <c r="C22">
-        <v>19.76244307865419</v>
+        <v>19.7624430786542</v>
       </c>
       <c r="D22">
-        <v>2.729143462243516</v>
+        <v>2.729143462243644</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.27365999408204</v>
+        <v>48.27365999408214</v>
       </c>
       <c r="G22">
-        <v>35.39424937363356</v>
+        <v>35.39424937363362</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.17673460654743</v>
+        <v>16.17673460654741</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.42208255379579</v>
+        <v>24.42208255379581</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.81362873243282</v>
+        <v>33.81362873243275</v>
       </c>
       <c r="C23">
-        <v>19.37738831253471</v>
+        <v>19.3773883125348</v>
       </c>
       <c r="D23">
-        <v>2.74092487521004</v>
+        <v>2.740924875209969</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.23363076841537</v>
+        <v>47.23363076841519</v>
       </c>
       <c r="G23">
-        <v>34.6170981147116</v>
+        <v>34.61709811471149</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.80688947114865</v>
+        <v>15.80688947114867</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.89127465366587</v>
+        <v>23.89127465366585</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.01845483382259</v>
+        <v>31.01845483382262</v>
       </c>
       <c r="C24">
-        <v>17.88180143678748</v>
+        <v>17.88180143678744</v>
       </c>
       <c r="D24">
-        <v>2.783659425627633</v>
+        <v>2.783659425627554</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,19 +1263,19 @@
         <v>43.41257602278154</v>
       </c>
       <c r="G24">
-        <v>31.93607668480506</v>
+        <v>31.93607668480508</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.38758054123872</v>
+        <v>14.38758054123871</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.84350953416818</v>
+        <v>21.84350953416813</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.83409112381051</v>
+        <v>27.8340911238104</v>
       </c>
       <c r="C25">
-        <v>16.17918276580556</v>
+        <v>16.17918276580563</v>
       </c>
       <c r="D25">
-        <v>2.82667358794451</v>
+        <v>2.826673587944442</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.4415406164963</v>
+        <v>39.44154061649632</v>
       </c>
       <c r="G25">
-        <v>29.20706428038823</v>
+        <v>29.20706428038825</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.80185107118171</v>
+        <v>12.80185107118164</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.53587058537451</v>
+        <v>19.53587058537445</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32697292629385</v>
+        <v>25.32609051794168</v>
       </c>
       <c r="C2">
-        <v>14.84060702851123</v>
+        <v>14.8391004556599</v>
       </c>
       <c r="D2">
-        <v>2.856488370150306</v>
+        <v>2.858626785428157</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.4985986817514</v>
+        <v>36.46318013716153</v>
       </c>
       <c r="G2">
-        <v>27.21603276053723</v>
+        <v>26.35365169679969</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.25074725740448</v>
       </c>
       <c r="I2">
-        <v>11.61631107832145</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.61423910756142</v>
       </c>
       <c r="K2">
-        <v>17.7359889146951</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>17.73731435215226</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.51945200474174</v>
+        <v>23.51885836217172</v>
       </c>
       <c r="C3">
-        <v>13.87732998220339</v>
+        <v>13.87617347121132</v>
       </c>
       <c r="D3">
-        <v>2.875866778634321</v>
+        <v>2.877481732315627</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.49080455465326</v>
+        <v>34.45785438683665</v>
       </c>
       <c r="G3">
-        <v>25.87706581805529</v>
+        <v>24.76666703500495</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>25.91039998594009</v>
       </c>
       <c r="I3">
-        <v>10.94422433370248</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.94233411334298</v>
       </c>
       <c r="K3">
-        <v>16.44682998783061</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>16.44816898810936</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.35410217541515</v>
+        <v>22.35367554285854</v>
       </c>
       <c r="C4">
-        <v>13.25739369320159</v>
+        <v>13.25645590301308</v>
       </c>
       <c r="D4">
-        <v>2.887452486185927</v>
+        <v>2.888744771899806</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.25245033199994</v>
+        <v>33.2210758597454</v>
       </c>
       <c r="G4">
-        <v>25.06064969914762</v>
+        <v>23.78193046632449</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.09319283978423</v>
       </c>
       <c r="I4">
-        <v>10.52754744040021</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.52577161482037</v>
       </c>
       <c r="K4">
-        <v>15.61921769984965</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15.62055447631038</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.86497400944428</v>
+        <v>21.86461321873752</v>
       </c>
       <c r="C5">
-        <v>12.99750878624683</v>
+        <v>12.99666150407996</v>
       </c>
       <c r="D5">
-        <v>2.892108075118619</v>
+        <v>2.893268394688903</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.7467237330311</v>
+        <v>32.71600696068263</v>
       </c>
       <c r="G5">
-        <v>24.72957373485732</v>
+        <v>23.37825254595824</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.76180941584132</v>
       </c>
       <c r="I5">
-        <v>10.35681387602014</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.35508556458827</v>
       </c>
       <c r="K5">
-        <v>15.27264263003522</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15.27397610092605</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.78288696831002</v>
+        <v>21.78253698655351</v>
       </c>
       <c r="C6">
-        <v>12.95391452920035</v>
+        <v>12.95308237145553</v>
       </c>
       <c r="D6">
-        <v>2.892877526010522</v>
+        <v>2.894015899648882</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.66269423213861</v>
+        <v>32.63208762124202</v>
       </c>
       <c r="G6">
-        <v>24.67470341912427</v>
+        <v>23.31108604872558</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.70688896553394</v>
       </c>
       <c r="I6">
-        <v>10.32841040727478</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.32669004480185</v>
       </c>
       <c r="K6">
-        <v>15.21452456126596</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15.21585734506646</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.3475636249823</v>
+        <v>22.34713788891422</v>
       </c>
       <c r="C7">
-        <v>13.25391828190011</v>
+        <v>13.2529817061951</v>
       </c>
       <c r="D7">
-        <v>2.887515522594541</v>
+        <v>2.888806030691602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.24563381904316</v>
+        <v>33.21426815317817</v>
       </c>
       <c r="G7">
-        <v>25.05617783759888</v>
+        <v>23.77649564449508</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.0887167705483</v>
       </c>
       <c r="I7">
-        <v>10.52524851600861</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.52347332735438</v>
       </c>
       <c r="K7">
-        <v>15.61458170179787</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15.61591844308537</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.71509062921137</v>
+        <v>24.7143101665165</v>
       </c>
       <c r="C8">
-        <v>14.51431654343676</v>
+        <v>14.51293014608359</v>
       </c>
       <c r="D8">
-        <v>2.863243061148394</v>
+        <v>2.865201145980432</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.80760880740998</v>
+        <v>35.77302924839362</v>
       </c>
       <c r="G8">
-        <v>26.75325653062724</v>
+        <v>25.80868842445522</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>26.78748377628622</v>
       </c>
       <c r="I8">
-        <v>11.38543749405891</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.3834277361856</v>
       </c>
       <c r="K8">
-        <v>17.29881580663898</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>17.30014827603618</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.93096205984091</v>
+        <v>28.92938395148565</v>
       </c>
       <c r="C9">
-        <v>16.76543130044143</v>
+        <v>16.7631729060193</v>
       </c>
       <c r="D9">
-        <v>2.812520808049393</v>
+        <v>2.815786426114772</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.78158906170352</v>
+        <v>40.74114939360451</v>
       </c>
       <c r="G9">
-        <v>30.1230970403261</v>
+        <v>29.70930246815248</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.16105353653562</v>
       </c>
       <c r="I9">
-        <v>13.34451833277115</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>13.34235830273944</v>
       </c>
       <c r="K9">
-        <v>20.3279030015753</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>20.3291294349902</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.78956342849848</v>
+        <v>31.78730185884988</v>
       </c>
       <c r="C10">
-        <v>18.29433284308532</v>
+        <v>18.29140971470107</v>
       </c>
       <c r="D10">
-        <v>2.772345032215243</v>
+        <v>2.776584271765238</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.40975153191086</v>
+        <v>44.36520841086933</v>
       </c>
       <c r="G10">
-        <v>32.6277024412822</v>
+        <v>32.52980431226426</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>32.66861596404024</v>
       </c>
       <c r="I10">
-        <v>14.77645100711608</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.77398140687702</v>
       </c>
       <c r="K10">
-        <v>22.40624968192419</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22.40731415555929</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.04372352429057</v>
+        <v>33.04111945223234</v>
       </c>
       <c r="C11">
-        <v>18.96539482051471</v>
+        <v>18.96215611751737</v>
       </c>
       <c r="D11">
-        <v>2.753173273821657</v>
+        <v>2.757862115598154</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>46.13043923537907</v>
+        <v>46.08359838258153</v>
       </c>
       <c r="G11">
-        <v>33.79283958821489</v>
+        <v>33.83621529883894</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>33.81891361194784</v>
       </c>
       <c r="I11">
-        <v>15.41323915518192</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>15.41061741503781</v>
       </c>
       <c r="K11">
-        <v>23.32502082796746</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>23.32598590677486</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.51253637233905</v>
+        <v>33.5097969272927</v>
       </c>
       <c r="C12">
-        <v>19.21626450823872</v>
+        <v>19.21290359812329</v>
       </c>
       <c r="D12">
-        <v>2.745758746006003</v>
+        <v>2.750619196868151</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.80100150164314</v>
+        <v>46.75347705056158</v>
       </c>
       <c r="G12">
-        <v>34.29384559331294</v>
+        <v>34.33784311587709</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>34.29084451685431</v>
       </c>
       <c r="I12">
-        <v>15.65268850400363</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>15.65000691696012</v>
       </c>
       <c r="K12">
-        <v>23.66961810026521</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>23.67054100823444</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.41183143752077</v>
+        <v>33.40912142080823</v>
       </c>
       <c r="C13">
-        <v>19.16237485615435</v>
+        <v>19.1590404005171</v>
       </c>
       <c r="D13">
-        <v>2.747362927879777</v>
+        <v>2.752186352407665</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.65664391887655</v>
+        <v>46.6092667534556</v>
       </c>
       <c r="G13">
-        <v>34.1859872908234</v>
+        <v>34.22985092622212</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>34.18670962848537</v>
       </c>
       <c r="I13">
-        <v>15.60118658236899</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>15.59851799529096</v>
       </c>
       <c r="K13">
-        <v>23.595541503074</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>23.59647371052328</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.0824121236945</v>
+        <v>33.07979703559853</v>
       </c>
       <c r="C14">
-        <v>18.98609738798029</v>
+        <v>18.98284869037414</v>
       </c>
       <c r="D14">
-        <v>2.752566536871298</v>
+        <v>2.757269467387026</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>46.18563525326063</v>
+        <v>46.13873818354628</v>
       </c>
       <c r="G14">
-        <v>33.83407782686032</v>
+        <v>33.87750470768845</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>33.85486122367212</v>
       </c>
       <c r="I14">
-        <v>15.43297002778918</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>15.43034341286529</v>
       </c>
       <c r="K14">
-        <v>23.35343436230124</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>23.35439606808254</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.87985489927497</v>
+        <v>32.87729718051035</v>
       </c>
       <c r="C15">
-        <v>18.87770826950534</v>
+        <v>18.87451172202497</v>
       </c>
       <c r="D15">
-        <v>2.755732929498484</v>
+        <v>2.76036224317818</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.89693665042597</v>
+        <v>45.85033352428564</v>
       </c>
       <c r="G15">
-        <v>33.62484335347009</v>
+        <v>33.66154561145989</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>33.66695825217824</v>
       </c>
       <c r="I15">
-        <v>15.32972604982389</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>15.32712483218667</v>
       </c>
       <c r="K15">
-        <v>23.20472094251997</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>23.20570009818985</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.70671495867173</v>
+        <v>31.70447504576873</v>
       </c>
       <c r="C16">
-        <v>18.25000735889696</v>
+        <v>18.24710452300137</v>
       </c>
       <c r="D16">
-        <v>2.773577812265219</v>
+        <v>2.777787835902984</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.30198327780255</v>
+        <v>44.25756094505151</v>
       </c>
       <c r="G16">
-        <v>32.55284593899294</v>
+        <v>32.44624707743458</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>32.59366969839135</v>
       </c>
       <c r="I16">
-        <v>14.73457516224285</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>14.73211522864164</v>
       </c>
       <c r="K16">
-        <v>22.3457111153279</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>22.34678150060851</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.97554849819761</v>
+        <v>30.97349473100892</v>
       </c>
       <c r="C17">
-        <v>17.85884907924209</v>
+        <v>17.85612251948349</v>
       </c>
       <c r="D17">
-        <v>2.784278520409111</v>
+        <v>2.788233295692553</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.35748084109661</v>
+        <v>43.31411933515288</v>
       </c>
       <c r="G17">
-        <v>31.89793141105154</v>
+        <v>31.71340574575737</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>31.93797288677</v>
       </c>
       <c r="I17">
-        <v>14.36600073890427</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>14.36362419592009</v>
       </c>
       <c r="K17">
-        <v>21.81224423900851</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>21.81336347413379</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.55061283943244</v>
+        <v>30.54866324588666</v>
       </c>
       <c r="C18">
-        <v>17.63154590731205</v>
+        <v>17.62891955227086</v>
       </c>
       <c r="D18">
-        <v>2.790350741413116</v>
+        <v>2.794159307771997</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.81408521897779</v>
+        <v>42.77133615612825</v>
       </c>
       <c r="G18">
-        <v>31.52210417187015</v>
+        <v>31.29133008993444</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>31.56169948490782</v>
       </c>
       <c r="I18">
-        <v>14.15260350213183</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>14.15027390261181</v>
       </c>
       <c r="K18">
-        <v>21.50286178046892</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>21.50400675263683</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.40596817023307</v>
+        <v>30.40405338168263</v>
       </c>
       <c r="C19">
-        <v>17.55417920059219</v>
+        <v>17.55158659192939</v>
       </c>
       <c r="D19">
-        <v>2.792393238280723</v>
+        <v>2.796152393586407</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.63006022388425</v>
+        <v>42.58751897840154</v>
       </c>
       <c r="G19">
-        <v>31.3949923716166</v>
+        <v>31.14831157360213</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>31.43443729007793</v>
       </c>
       <c r="I19">
-        <v>14.08009844083246</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>14.07778457629375</v>
       </c>
       <c r="K19">
-        <v>21.39765847691936</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>21.39881177993868</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.053832921957</v>
+        <v>31.05175964597223</v>
       </c>
       <c r="C20">
-        <v>17.90072678859693</v>
+        <v>17.89798159192954</v>
       </c>
       <c r="D20">
-        <v>2.783148129219568</v>
+        <v>2.78713001108343</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.45803555087029</v>
+        <v>43.41456089693788</v>
       </c>
       <c r="G20">
-        <v>31.9675561535051</v>
+        <v>31.79147296711404</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.00768051707898</v>
       </c>
       <c r="I20">
-        <v>14.40537855177456</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.4029932412484</v>
       </c>
       <c r="K20">
-        <v>21.86929277654263</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>21.8704070611526</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.17933169596428</v>
+        <v>33.17668888941109</v>
       </c>
       <c r="C21">
-        <v>19.03796009989657</v>
+        <v>19.03468629377195</v>
       </c>
       <c r="D21">
-        <v>2.751042532434928</v>
+        <v>2.755780814726606</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.32402025247606</v>
+        <v>46.27698219891652</v>
       </c>
       <c r="G21">
-        <v>33.93746932921266</v>
+        <v>33.9810245136542</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>33.94685521977868</v>
       </c>
       <c r="I21">
-        <v>15.48242150138234</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.47978262453862</v>
       </c>
       <c r="K21">
-        <v>23.42463270826747</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>23.42558588041769</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.53316539235355</v>
+        <v>34.53011655152245</v>
       </c>
       <c r="C22">
-        <v>19.7624430786542</v>
+        <v>19.75880752142806</v>
       </c>
       <c r="D22">
-        <v>2.729143462243644</v>
+        <v>2.734384227276232</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.27365999408214</v>
+        <v>48.22462846781178</v>
       </c>
       <c r="G22">
-        <v>35.39424937363362</v>
+        <v>35.43961283716614</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>35.35447594507734</v>
       </c>
       <c r="I22">
-        <v>16.17673460654741</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>16.17391657103738</v>
       </c>
       <c r="K22">
-        <v>24.42208255379581</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>24.42290345274118</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.81362873243275</v>
+        <v>33.81080014227516</v>
       </c>
       <c r="C23">
-        <v>19.3773883125348</v>
+        <v>19.37394763006824</v>
       </c>
       <c r="D23">
-        <v>2.740924875209969</v>
+        <v>2.745896562895163</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.23363076841519</v>
+        <v>47.18566447349762</v>
       </c>
       <c r="G23">
-        <v>34.61709811471149</v>
+        <v>34.66149693130572</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>34.603068110653</v>
       </c>
       <c r="I23">
-        <v>15.80688947114867</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.8041685323291</v>
       </c>
       <c r="K23">
-        <v>23.89127465366585</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>23.89216895427585</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.01845483382262</v>
+        <v>31.01639038654136</v>
       </c>
       <c r="C24">
-        <v>17.88180143678744</v>
+        <v>17.8790646693545</v>
       </c>
       <c r="D24">
-        <v>2.783659425627554</v>
+        <v>2.787629050963873</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.41257602278154</v>
+        <v>43.36915251490656</v>
       </c>
       <c r="G24">
-        <v>31.93607668480508</v>
+        <v>31.75618116839659</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>31.97616356360363</v>
       </c>
       <c r="I24">
-        <v>14.38758054123871</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>14.38519919758633</v>
       </c>
       <c r="K24">
-        <v>21.84350953416813</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>21.8446260641589</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.8340911238104</v>
+        <v>27.8327429316754</v>
       </c>
       <c r="C25">
-        <v>16.17918276580563</v>
+        <v>16.17716211108488</v>
       </c>
       <c r="D25">
-        <v>2.826673587944442</v>
+        <v>2.829584348396423</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.44154061649632</v>
+        <v>39.40264480757423</v>
       </c>
       <c r="G25">
-        <v>29.20706428038825</v>
+        <v>28.66298027760355</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.24397116932562</v>
       </c>
       <c r="I25">
-        <v>12.80185107118164</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.79979827871767</v>
       </c>
       <c r="K25">
-        <v>19.53587058537445</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>19.53713836830574</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32609051794168</v>
+        <v>29.61334933032456</v>
       </c>
       <c r="C2">
-        <v>14.8391004556599</v>
+        <v>16.50938951249996</v>
       </c>
       <c r="D2">
-        <v>2.858626785428157</v>
+        <v>2.863450179450253</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.46318013716153</v>
+        <v>45.40150014706249</v>
       </c>
       <c r="G2">
-        <v>26.35365169679969</v>
+        <v>2.116800006881883</v>
       </c>
       <c r="H2">
-        <v>27.25074725740448</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.61423910756142</v>
+        <v>5.837454639993712</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.73731435215226</v>
+        <v>7.937257636054637</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>14.85411240654943</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.51885836217172</v>
+        <v>27.88005946275145</v>
       </c>
       <c r="C3">
-        <v>13.87617347121132</v>
+        <v>15.30005010880309</v>
       </c>
       <c r="D3">
-        <v>2.877481732315627</v>
+        <v>2.700418253462681</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.45785438683665</v>
+        <v>43.89197450562261</v>
       </c>
       <c r="G3">
-        <v>24.76666703500495</v>
+        <v>2.130443583422393</v>
       </c>
       <c r="H3">
-        <v>25.91039998594009</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.94233411334298</v>
+        <v>5.890990925184313</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.44816898810936</v>
+        <v>7.764082334783291</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>15.08208113848892</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.35367554285854</v>
+        <v>26.79018077248145</v>
       </c>
       <c r="C4">
-        <v>13.25645590301308</v>
+        <v>14.5231072547229</v>
       </c>
       <c r="D4">
-        <v>2.888744771899806</v>
+        <v>2.598525811914483</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.2210758597454</v>
+        <v>42.99078488582277</v>
       </c>
       <c r="G4">
-        <v>23.78193046632449</v>
+        <v>2.13897952335307</v>
       </c>
       <c r="H4">
-        <v>25.09319283978423</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.52577161482037</v>
+        <v>5.92496279506766</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.62055447631038</v>
+        <v>7.661546714843909</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>15.22643829356658</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.86461321873752</v>
+        <v>26.33989181939598</v>
       </c>
       <c r="C5">
-        <v>12.99666150407996</v>
+        <v>14.1976597262343</v>
       </c>
       <c r="D5">
-        <v>2.893268394688903</v>
+        <v>2.556520871004086</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.71600696068263</v>
+        <v>42.63003183559062</v>
       </c>
       <c r="G5">
-        <v>23.37825254595824</v>
+        <v>2.142502147931761</v>
       </c>
       <c r="H5">
-        <v>24.76180941584132</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.35508556458827</v>
+        <v>5.939090710313213</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.27397610092605</v>
+        <v>7.620719670833558</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>15.28635271070592</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.78253698655351</v>
+        <v>26.2647607778876</v>
       </c>
       <c r="C6">
-        <v>12.95308237145553</v>
+        <v>14.14308065164112</v>
       </c>
       <c r="D6">
-        <v>2.894015899648882</v>
+        <v>2.549516008204353</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.63208762124202</v>
+        <v>42.57052263099852</v>
       </c>
       <c r="G6">
-        <v>23.31108604872558</v>
+        <v>2.143089861024721</v>
       </c>
       <c r="H6">
-        <v>24.70688896553394</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.32669004480185</v>
+        <v>5.941454006177227</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.21585734506646</v>
+        <v>7.613998290403498</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>15.29636681517337</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.34713788891422</v>
+        <v>26.78413246655747</v>
       </c>
       <c r="C7">
-        <v>13.2529817061951</v>
+        <v>14.51875416675781</v>
       </c>
       <c r="D7">
-        <v>2.888806030691602</v>
+        <v>2.597961311552976</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.21426815317817</v>
+        <v>42.98589329928967</v>
       </c>
       <c r="G7">
-        <v>23.77649564449508</v>
+        <v>2.139026846565994</v>
       </c>
       <c r="H7">
-        <v>25.0887167705483</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.52347332735438</v>
+        <v>5.925152169311207</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.61591844308537</v>
+        <v>7.660992226891807</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>15.22724193191211</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.7143101665165</v>
+        <v>29.02116852584968</v>
       </c>
       <c r="C8">
-        <v>14.51293014608359</v>
+        <v>16.09943087403477</v>
       </c>
       <c r="D8">
-        <v>2.865201145980432</v>
+        <v>2.807586003837942</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.77302924839362</v>
+        <v>44.87569738105726</v>
       </c>
       <c r="G8">
-        <v>25.80868842445522</v>
+        <v>2.121474052409155</v>
       </c>
       <c r="H8">
-        <v>26.78748377628622</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.3834277361856</v>
+        <v>5.855690191632292</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.30014827603618</v>
+        <v>7.876760116947731</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>14.93179588941834</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.92938395148565</v>
+        <v>33.19804657979674</v>
       </c>
       <c r="C9">
-        <v>16.7631729060193</v>
+        <v>18.93578622838474</v>
       </c>
       <c r="D9">
-        <v>2.815786426114772</v>
+        <v>3.20640400257468</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.74114939360451</v>
+        <v>48.78659026418873</v>
       </c>
       <c r="G9">
-        <v>29.70930246815248</v>
+        <v>2.088097073295756</v>
       </c>
       <c r="H9">
-        <v>30.16105353653562</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.34235830273944</v>
+        <v>5.727841622163556</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>20.3291294349902</v>
+        <v>8.330070610898762</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>14.38817233938482</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.78730185884988</v>
+        <v>36.13876252822508</v>
       </c>
       <c r="C10">
-        <v>18.29140971470107</v>
+        <v>20.87462723299815</v>
       </c>
       <c r="D10">
-        <v>2.776584271765238</v>
+        <v>3.49543729406405</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.36520841086933</v>
+        <v>51.79302732722798</v>
       </c>
       <c r="G10">
-        <v>32.52980431226426</v>
+        <v>2.063867545738145</v>
       </c>
       <c r="H10">
-        <v>32.66861596404024</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14.77398140687702</v>
+        <v>5.638449492834152</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.40731415555929</v>
+        <v>8.682130411568686</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>14.01254054248767</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.04111945223234</v>
+        <v>37.51224013629186</v>
       </c>
       <c r="C11">
-        <v>18.96215611751737</v>
+        <v>21.72930764617404</v>
       </c>
       <c r="D11">
-        <v>2.757862115598154</v>
+        <v>3.627090814802366</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>46.08359838258153</v>
+        <v>53.1936824843981</v>
       </c>
       <c r="G11">
-        <v>33.83621529883894</v>
+        <v>2.052816760980792</v>
       </c>
       <c r="H11">
-        <v>33.81891361194784</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>15.41061741503781</v>
+        <v>5.598625985818114</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.32598590677486</v>
+        <v>8.846741324462027</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>13.84750723956009</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.5097969272927</v>
+        <v>38.03977960506772</v>
       </c>
       <c r="C12">
-        <v>19.21290359812329</v>
+        <v>22.04943657123564</v>
       </c>
       <c r="D12">
-        <v>2.750619196868151</v>
+        <v>3.67707711731364</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.75347705056158</v>
+        <v>53.72935255554992</v>
       </c>
       <c r="G12">
-        <v>34.33784311587709</v>
+        <v>2.048618870855142</v>
       </c>
       <c r="H12">
-        <v>34.29084451685431</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15.65000691696012</v>
+        <v>5.583653391663549</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.67054100823444</v>
+        <v>8.909759720997767</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>13.78593672468923</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.40912142080823</v>
+        <v>37.9263752375448</v>
       </c>
       <c r="C13">
-        <v>19.1590404005171</v>
+        <v>21.98064043946016</v>
       </c>
       <c r="D13">
-        <v>2.752186352407665</v>
+        <v>3.666303861111067</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.6092667534556</v>
+        <v>53.61374153597691</v>
       </c>
       <c r="G13">
-        <v>34.22985092622212</v>
+        <v>2.04952370932068</v>
       </c>
       <c r="H13">
-        <v>34.18670962848537</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15.59851799529096</v>
+        <v>5.586873447930889</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.59647371052328</v>
+        <v>8.896156301224414</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>13.79915434371976</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.07979703559853</v>
+        <v>37.5557369412147</v>
       </c>
       <c r="C14">
-        <v>18.98284869037414</v>
+        <v>21.75571282498219</v>
       </c>
       <c r="D14">
-        <v>2.757269467387026</v>
+        <v>3.631199881182985</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>46.13873818354628</v>
+        <v>53.23764303647118</v>
       </c>
       <c r="G14">
-        <v>33.87750470768845</v>
+        <v>2.052471719886043</v>
       </c>
       <c r="H14">
-        <v>33.85486122367212</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>15.43034341286529</v>
+        <v>5.597392105268203</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.35439606808254</v>
+        <v>8.851911874461482</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>13.84242271084253</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.87729718051035</v>
+        <v>37.32808319683122</v>
       </c>
       <c r="C15">
-        <v>18.87451172202497</v>
+        <v>21.61749295533115</v>
       </c>
       <c r="D15">
-        <v>2.76036224317818</v>
+        <v>3.609718418659194</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.85033352428564</v>
+        <v>53.00797724949359</v>
       </c>
       <c r="G15">
-        <v>33.66154561145989</v>
+        <v>2.054275447901154</v>
       </c>
       <c r="H15">
-        <v>33.66695825217824</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>15.32712483218667</v>
+        <v>5.603848688901311</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23.20570009818985</v>
+        <v>8.824901501414113</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>13.86904906759294</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.70447504576873</v>
+        <v>36.05250890063169</v>
       </c>
       <c r="C16">
-        <v>18.24710452300137</v>
+        <v>20.81825567706446</v>
       </c>
       <c r="D16">
-        <v>2.777787835902984</v>
+        <v>3.486845572550588</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.25756094505151</v>
+        <v>51.70219625367976</v>
       </c>
       <c r="G16">
-        <v>32.44624707743458</v>
+        <v>2.064588420904636</v>
       </c>
       <c r="H16">
-        <v>32.59366969839135</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14.73211522864164</v>
+        <v>5.641067886197975</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.34678150060851</v>
+        <v>8.671465680946095</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>14.02345006696006</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.97349473100892</v>
+        <v>35.29381137954685</v>
       </c>
       <c r="C17">
-        <v>17.85612251948349</v>
+        <v>20.32122506637502</v>
       </c>
       <c r="D17">
-        <v>2.788233295692553</v>
+        <v>3.411580819223078</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.31411933515288</v>
+        <v>50.90991449518418</v>
       </c>
       <c r="G17">
-        <v>31.71340574575737</v>
+        <v>2.070901743949369</v>
       </c>
       <c r="H17">
-        <v>31.93797288677</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>14.36362419592009</v>
+        <v>5.664107226689369</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.81336347413379</v>
+        <v>8.578504796025282</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>14.11971912318484</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.54866324588666</v>
+        <v>34.85501963626766</v>
       </c>
       <c r="C18">
-        <v>17.62891955227086</v>
+        <v>20.03274802683509</v>
       </c>
       <c r="D18">
-        <v>2.794159307771997</v>
+        <v>3.368299034544569</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.77133615612825</v>
+        <v>50.45728075679959</v>
       </c>
       <c r="G18">
-        <v>31.29133008993444</v>
+        <v>2.074530925000358</v>
       </c>
       <c r="H18">
-        <v>31.56169948490782</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>14.15027390261181</v>
+        <v>5.677438931430037</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.50400675263683</v>
+        <v>8.525452226120933</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>14.17563430176693</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.40405338168263</v>
+        <v>34.70602968795789</v>
       </c>
       <c r="C19">
-        <v>17.55158659192939</v>
+        <v>19.93461704401102</v>
       </c>
       <c r="D19">
-        <v>2.796152393586407</v>
+        <v>3.353643088474125</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.58751897840154</v>
+        <v>50.30454022345035</v>
       </c>
       <c r="G19">
-        <v>31.14831157360213</v>
+        <v>2.075759600325245</v>
       </c>
       <c r="H19">
-        <v>31.43443729007793</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>14.07778457629375</v>
+        <v>5.681966950422459</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.39881177993868</v>
+        <v>8.507559955905677</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>14.1946574358597</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.05175964597223</v>
+        <v>35.37482315185424</v>
       </c>
       <c r="C20">
-        <v>17.89798159192954</v>
+        <v>20.37440098096225</v>
       </c>
       <c r="D20">
-        <v>2.78713001108343</v>
+        <v>3.419591288037384</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.41456089693788</v>
+        <v>50.99393372119454</v>
       </c>
       <c r="G20">
-        <v>31.79147296711404</v>
+        <v>2.070229955875741</v>
       </c>
       <c r="H20">
-        <v>32.00768051707898</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>14.4029932412484</v>
+        <v>5.661646451960034</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.8704070611526</v>
+        <v>8.588357320978435</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>14.10941430852952</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.17668888941109</v>
+        <v>37.66473202140656</v>
       </c>
       <c r="C21">
-        <v>19.03468629377195</v>
+        <v>21.82187147769721</v>
       </c>
       <c r="D21">
-        <v>2.755780814726606</v>
+        <v>3.641506226427376</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.27698219891652</v>
+        <v>53.34796406833817</v>
       </c>
       <c r="G21">
-        <v>33.9810245136542</v>
+        <v>2.05160625571637</v>
       </c>
       <c r="H21">
-        <v>33.94685521977868</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>15.47978262453862</v>
+        <v>5.594299712147846</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.42558588041769</v>
+        <v>8.864888549589256</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>13.82968787622091</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.53011655152245</v>
+        <v>39.19164146434121</v>
       </c>
       <c r="C22">
-        <v>19.75880752142806</v>
+        <v>22.74759920925251</v>
       </c>
       <c r="D22">
-        <v>2.734384227276232</v>
+        <v>3.787375892504456</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.22462846781178</v>
+        <v>54.91757712937213</v>
       </c>
       <c r="G22">
-        <v>35.43961283716614</v>
+        <v>2.039352304614073</v>
       </c>
       <c r="H22">
-        <v>35.35447594507734</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16.17391657103738</v>
+        <v>5.550905015755914</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.42290345274118</v>
+        <v>9.049636495387078</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>13.6523140584458</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.81080014227516</v>
+        <v>38.37911243745215</v>
       </c>
       <c r="C23">
-        <v>19.37394763006824</v>
+        <v>22.25522389894423</v>
       </c>
       <c r="D23">
-        <v>2.745896562895163</v>
+        <v>3.709404743957227</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.18566447349762</v>
+        <v>54.07677318337669</v>
       </c>
       <c r="G23">
-        <v>34.66149693130572</v>
+        <v>2.045903405919649</v>
       </c>
       <c r="H23">
-        <v>34.603068110653</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>15.8041685323291</v>
+        <v>5.574013687660352</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.89216895427585</v>
+        <v>8.950646489567756</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>13.74644936028626</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.01639038654136</v>
+        <v>35.33820587360278</v>
       </c>
       <c r="C24">
-        <v>17.8790646693545</v>
+        <v>20.35036867532902</v>
       </c>
       <c r="D24">
-        <v>2.787629050963873</v>
+        <v>3.415969797361271</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.36915251490656</v>
+        <v>50.95593975924076</v>
       </c>
       <c r="G24">
-        <v>31.75618116839659</v>
+        <v>2.070533671947782</v>
       </c>
       <c r="H24">
-        <v>31.97616356360363</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>14.38519919758633</v>
+        <v>5.662758699114876</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.8446260641589</v>
+        <v>8.583901776814503</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>14.11407134956673</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.8327429316754</v>
+        <v>32.09100749527664</v>
       </c>
       <c r="C25">
-        <v>16.17716211108488</v>
+        <v>18.19519656893774</v>
       </c>
       <c r="D25">
-        <v>2.829584348396423</v>
+        <v>3.099509262643824</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.40264480757423</v>
+        <v>47.70615029286639</v>
       </c>
       <c r="G25">
-        <v>28.66298027760355</v>
+        <v>2.09704740725038</v>
       </c>
       <c r="H25">
-        <v>29.24397116932562</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.79979827871767</v>
+        <v>5.761587063033129</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.53713836830574</v>
+        <v>8.204170659384195</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>14.53124602910306</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.61334933032456</v>
+        <v>13.72985264118893</v>
       </c>
       <c r="C2">
-        <v>16.50938951249996</v>
+        <v>5.285850104797529</v>
       </c>
       <c r="D2">
-        <v>2.863450179450253</v>
+        <v>6.118365686423124</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>45.40150014706249</v>
+        <v>70.37798851833989</v>
       </c>
       <c r="G2">
-        <v>2.116800006881883</v>
+        <v>2.209474941596119</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.837454639993712</v>
+        <v>7.790189924360505</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.65025146568711</v>
       </c>
       <c r="L2">
-        <v>7.937257636054637</v>
+        <v>5.495252231349919</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.07398618158042</v>
       </c>
       <c r="N2">
-        <v>14.85411240654943</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.88005946275145</v>
+        <v>13.24487975099428</v>
       </c>
       <c r="C3">
-        <v>15.30005010880309</v>
+        <v>4.975090433056683</v>
       </c>
       <c r="D3">
-        <v>2.700418253462681</v>
+        <v>5.835953886375044</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.89197450562261</v>
+        <v>67.59742020596138</v>
       </c>
       <c r="G3">
-        <v>2.130443583422393</v>
+        <v>2.220060838333535</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.890990925184313</v>
+        <v>7.735948342360325</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.3157651430124</v>
       </c>
       <c r="L3">
-        <v>7.764082334783291</v>
+        <v>5.561555673402543</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.03554133048448</v>
       </c>
       <c r="N3">
-        <v>15.08208113848892</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.79018077248145</v>
+        <v>12.95441036685387</v>
       </c>
       <c r="C4">
-        <v>14.5231072547229</v>
+        <v>4.777325011943442</v>
       </c>
       <c r="D4">
-        <v>2.598525811914483</v>
+        <v>5.65701734487573</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.99078488582277</v>
+        <v>65.85910706344202</v>
       </c>
       <c r="G4">
-        <v>2.13897952335307</v>
+        <v>2.226708868208515</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.92496279506766</v>
+        <v>7.703433160265314</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.11826251058395</v>
       </c>
       <c r="L4">
-        <v>7.661546714843909</v>
+        <v>5.605355687129319</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.02073981086154</v>
       </c>
       <c r="N4">
-        <v>15.22643829356658</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.33989181939598</v>
+        <v>12.83801241925863</v>
       </c>
       <c r="C5">
-        <v>14.1976597262343</v>
+        <v>4.694954752875467</v>
       </c>
       <c r="D5">
-        <v>2.556520871004086</v>
+        <v>5.582722099203843</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.63003183559062</v>
+        <v>65.14341759888555</v>
       </c>
       <c r="G5">
-        <v>2.142502147931761</v>
+        <v>2.229457698192855</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.939090710313213</v>
+        <v>7.690370006514653</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.03982521669769</v>
       </c>
       <c r="L5">
-        <v>7.620719670833558</v>
+        <v>5.623968009992447</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.01685130341419</v>
       </c>
       <c r="N5">
-        <v>15.28635271070592</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.2647607778876</v>
+        <v>12.81880772041503</v>
       </c>
       <c r="C6">
-        <v>14.14308065164112</v>
+        <v>4.6811690739176</v>
       </c>
       <c r="D6">
-        <v>2.549516008204353</v>
+        <v>5.570302849494507</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.57052263099852</v>
+        <v>65.02415246398125</v>
       </c>
       <c r="G6">
-        <v>2.143089861024721</v>
+        <v>2.229916604938557</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.941454006177227</v>
+        <v>7.688211856817724</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.02692634201723</v>
       </c>
       <c r="L6">
-        <v>7.613998290403498</v>
+        <v>5.627104319853315</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.01633300333603</v>
       </c>
       <c r="N6">
-        <v>15.29636681517337</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.78413246655747</v>
+        <v>12.95283242118544</v>
       </c>
       <c r="C7">
-        <v>14.51875416675781</v>
+        <v>4.77622137481359</v>
       </c>
       <c r="D7">
-        <v>2.597961311552976</v>
+        <v>5.656020923643144</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.98589329928967</v>
+        <v>65.84948391456238</v>
       </c>
       <c r="G7">
-        <v>2.139026846565994</v>
+        <v>2.226745776050934</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.925152169311207</v>
+        <v>7.703256243227262</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.11719630197458</v>
       </c>
       <c r="L7">
-        <v>7.660992226891807</v>
+        <v>5.605603624792641</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.02067878438146</v>
       </c>
       <c r="N7">
-        <v>15.22724193191211</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.02116852584968</v>
+        <v>13.56119441074112</v>
       </c>
       <c r="C8">
-        <v>16.09943087403477</v>
+        <v>5.180123627620875</v>
       </c>
       <c r="D8">
-        <v>2.807586003837942</v>
+        <v>6.02214475671517</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.87569738105726</v>
+        <v>69.42595287621394</v>
       </c>
       <c r="G8">
-        <v>2.121474052409155</v>
+        <v>2.213095708753067</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.855690191632292</v>
+        <v>7.771316436592739</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.53332575450502</v>
       </c>
       <c r="L8">
-        <v>7.876760116947731</v>
+        <v>5.517463901608093</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.05886067690024</v>
       </c>
       <c r="N8">
-        <v>14.93179588941834</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.19804657979674</v>
+        <v>14.80702584791617</v>
       </c>
       <c r="C9">
-        <v>18.93578622838474</v>
+        <v>5.918785898931969</v>
       </c>
       <c r="D9">
-        <v>3.20640400257468</v>
+        <v>6.696041413411277</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>48.78659026418873</v>
+        <v>76.17704263181292</v>
       </c>
       <c r="G9">
-        <v>2.088097073295756</v>
+        <v>2.187384245678702</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.727841622163556</v>
+        <v>7.911614009303851</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.40916947617216</v>
       </c>
       <c r="L9">
-        <v>8.330070610898762</v>
+        <v>5.369825112530578</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.20677203478996</v>
       </c>
       <c r="N9">
-        <v>14.38817233938482</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.13876252822508</v>
+        <v>15.74920879090132</v>
       </c>
       <c r="C10">
-        <v>20.87462723299815</v>
+        <v>6.432164023040696</v>
       </c>
       <c r="D10">
-        <v>3.49543729406405</v>
+        <v>7.16477668326063</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>51.79302732722798</v>
+        <v>80.9636955202799</v>
       </c>
       <c r="G10">
-        <v>2.063867545738145</v>
+        <v>2.168952717020655</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.638449492834152</v>
+        <v>8.019739998273097</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.08638103552066</v>
       </c>
       <c r="L10">
-        <v>8.682130411568686</v>
+        <v>5.277827836183304</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.36442571507603</v>
       </c>
       <c r="N10">
-        <v>14.01254054248767</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.51224013629186</v>
+        <v>16.18307648568999</v>
       </c>
       <c r="C11">
-        <v>21.72930764617404</v>
+        <v>6.660263394388596</v>
       </c>
       <c r="D11">
-        <v>3.627090814802366</v>
+        <v>7.372588273163768</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>53.1936824843981</v>
+        <v>83.10313253942195</v>
       </c>
       <c r="G11">
-        <v>2.052816760980792</v>
+        <v>2.160620399501501</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.598625985818114</v>
+        <v>8.070251423769214</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.40348942929704</v>
       </c>
       <c r="L11">
-        <v>8.846741324462027</v>
+        <v>5.239849102933267</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.44778687685005</v>
       </c>
       <c r="N11">
-        <v>13.84750723956009</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.03977960506772</v>
+        <v>16.34812051070334</v>
       </c>
       <c r="C12">
-        <v>22.04943657123564</v>
+        <v>6.745948189931683</v>
       </c>
       <c r="D12">
-        <v>3.67707711731364</v>
+        <v>7.450538994258077</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.72935255554992</v>
+        <v>83.90792397195447</v>
       </c>
       <c r="G12">
-        <v>2.048618870855142</v>
+        <v>2.157468238398526</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.583653391663549</v>
+        <v>8.089590660328144</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.58719248216851</v>
       </c>
       <c r="L12">
-        <v>8.909759720997767</v>
+        <v>5.226053628721184</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.48111563365794</v>
       </c>
       <c r="N12">
-        <v>13.78593672468923</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.9263752375448</v>
+        <v>16.31254182401052</v>
       </c>
       <c r="C13">
-        <v>21.98064043946016</v>
+        <v>6.727523594704471</v>
       </c>
       <c r="D13">
-        <v>3.666303861111067</v>
+        <v>7.433783271551932</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.61374153597691</v>
+        <v>83.73483346414943</v>
       </c>
       <c r="G13">
-        <v>2.04952370932068</v>
+        <v>2.158147050585284</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.586873447930889</v>
+        <v>8.085415828383733</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.54772380634826</v>
       </c>
       <c r="L13">
-        <v>8.896156301224414</v>
+        <v>5.228998140911787</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.4738578823325</v>
       </c>
       <c r="N13">
-        <v>13.79915434371976</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.5557369412147</v>
+        <v>16.1966396930321</v>
       </c>
       <c r="C14">
-        <v>21.75571282498219</v>
+        <v>6.667326022844536</v>
       </c>
       <c r="D14">
-        <v>3.631199881182985</v>
+        <v>7.379015973264296</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>53.23764303647118</v>
+        <v>83.16944974392293</v>
       </c>
       <c r="G14">
-        <v>2.052471719886043</v>
+        <v>2.160361034243767</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.597392105268203</v>
+        <v>8.071838101028433</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.41864586361574</v>
       </c>
       <c r="L14">
-        <v>8.851911874461482</v>
+        <v>5.238702207177488</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.45049302518281</v>
       </c>
       <c r="N14">
-        <v>13.84242271084253</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.32808319683122</v>
+        <v>16.12574402084093</v>
       </c>
       <c r="C15">
-        <v>21.61749295533115</v>
+        <v>6.630366150781105</v>
       </c>
       <c r="D15">
-        <v>3.609718418659194</v>
+        <v>7.345373907516668</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>53.00797724949359</v>
+        <v>82.82244213036472</v>
       </c>
       <c r="G15">
-        <v>2.054275447901154</v>
+        <v>2.161717427644824</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.603848688901311</v>
+        <v>8.06354959181556</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.35978280956962</v>
       </c>
       <c r="L15">
-        <v>8.824901501414113</v>
+        <v>5.244723524434349</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.43641349295559</v>
       </c>
       <c r="N15">
-        <v>13.86904906759294</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.05250890063169</v>
+        <v>15.7209588324079</v>
       </c>
       <c r="C16">
-        <v>20.81825567706446</v>
+        <v>6.417155178292604</v>
       </c>
       <c r="D16">
-        <v>3.486845572550588</v>
+        <v>7.151089531562163</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>51.70219625367976</v>
+        <v>80.82311884728827</v>
       </c>
       <c r="G16">
-        <v>2.064588420904636</v>
+        <v>2.169497940474407</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.641067886197975</v>
+        <v>8.016467359185899</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.06592749124965</v>
       </c>
       <c r="L16">
-        <v>8.671465680946095</v>
+        <v>5.280390168353092</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.35921950612756</v>
       </c>
       <c r="N16">
-        <v>14.02345006696006</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.29381137954685</v>
+        <v>15.47396664293603</v>
       </c>
       <c r="C17">
-        <v>20.32122506637502</v>
+        <v>6.285024271882607</v>
       </c>
       <c r="D17">
-        <v>3.411580819223078</v>
+        <v>7.030537081782698</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>50.90991449518418</v>
+        <v>79.58689093639251</v>
       </c>
       <c r="G17">
-        <v>2.070901743949369</v>
+        <v>2.174281447462255</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.664107226689369</v>
+        <v>7.987937392571226</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.88746803272677</v>
       </c>
       <c r="L17">
-        <v>8.578504796025282</v>
+        <v>5.303281773149127</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.31490615789115</v>
       </c>
       <c r="N17">
-        <v>14.11971912318484</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85501963626766</v>
+        <v>15.33239717106321</v>
       </c>
       <c r="C18">
-        <v>20.03274802683509</v>
+        <v>6.208507910600314</v>
       </c>
       <c r="D18">
-        <v>3.368299034544569</v>
+        <v>6.960685713910173</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.45728075679959</v>
+        <v>78.87225157085838</v>
       </c>
       <c r="G18">
-        <v>2.074530925000358</v>
+        <v>2.177038008066849</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.677438931430037</v>
+        <v>7.971650947164339</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.78548814601389</v>
       </c>
       <c r="L18">
-        <v>8.525452226120933</v>
+        <v>5.316810799459681</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.29050874743121</v>
       </c>
       <c r="N18">
-        <v>14.17563430176693</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.70602968795789</v>
+        <v>15.28454987341792</v>
       </c>
       <c r="C19">
-        <v>19.93461704401102</v>
+        <v>6.182509254113356</v>
       </c>
       <c r="D19">
-        <v>3.353643088474125</v>
+        <v>6.936946233626968</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.30454022345035</v>
+        <v>78.62966862048044</v>
       </c>
       <c r="G19">
-        <v>2.075759600325245</v>
+        <v>2.177972353530416</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.681966950422459</v>
+        <v>7.966157199851737</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.75107401084277</v>
       </c>
       <c r="L19">
-        <v>8.507559955905677</v>
+        <v>5.321452900793213</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.28243291863018</v>
       </c>
       <c r="N19">
-        <v>14.1946574358597</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.37482315185424</v>
+        <v>15.50020844761857</v>
       </c>
       <c r="C20">
-        <v>20.37440098096225</v>
+        <v>6.299142847593678</v>
       </c>
       <c r="D20">
-        <v>3.419591288037384</v>
+        <v>7.043422937968642</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>50.99393372119454</v>
+        <v>79.71886110028856</v>
       </c>
       <c r="G20">
-        <v>2.070229955875741</v>
+        <v>2.173771725629335</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.661646451960034</v>
+        <v>7.990961556662237</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.90639653405512</v>
       </c>
       <c r="L20">
-        <v>8.588357320978435</v>
+        <v>5.300807216821125</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.31950991685861</v>
       </c>
       <c r="N20">
-        <v>14.10941430852952</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.66473202140656</v>
+        <v>16.23066255587755</v>
       </c>
       <c r="C21">
-        <v>21.82187147769721</v>
+        <v>6.685025482887132</v>
       </c>
       <c r="D21">
-        <v>3.641506226427376</v>
+        <v>7.395122282275643</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>53.34796406833817</v>
+        <v>83.33566086683135</v>
       </c>
       <c r="G21">
-        <v>2.05160625571637</v>
+        <v>2.159710687106351</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.594299712147846</v>
+        <v>8.075820281447122</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.45661747980302</v>
       </c>
       <c r="L21">
-        <v>8.864888549589256</v>
+        <v>5.235835720322606</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.45730731247519</v>
       </c>
       <c r="N21">
-        <v>13.82968787622091</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.19164146434121</v>
+        <v>16.71243767311324</v>
       </c>
       <c r="C22">
-        <v>22.74759920925251</v>
+        <v>6.933244172070873</v>
       </c>
       <c r="D22">
-        <v>3.787375892504456</v>
+        <v>7.620671545043496</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>54.91757712937213</v>
+        <v>85.66830399764426</v>
       </c>
       <c r="G22">
-        <v>2.039352304614073</v>
+        <v>2.150536639796651</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.550905015755914</v>
+        <v>8.13252600840252</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.98740040874033</v>
       </c>
       <c r="L22">
-        <v>9.049636495387078</v>
+        <v>5.196807092871686</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.55767960146528</v>
       </c>
       <c r="N22">
-        <v>13.6523140584458</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.37911243745215</v>
+        <v>16.45489766364348</v>
       </c>
       <c r="C23">
-        <v>22.25522389894423</v>
+        <v>6.801095434672853</v>
       </c>
       <c r="D23">
-        <v>3.709404743957227</v>
+        <v>7.500671046689029</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>54.07677318337669</v>
+        <v>84.42611148833201</v>
       </c>
       <c r="G23">
-        <v>2.045903405919649</v>
+        <v>2.155433172268748</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.574013687660352</v>
+        <v>8.102139355583889</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.70522084581331</v>
       </c>
       <c r="L23">
-        <v>8.950646489567756</v>
+        <v>5.217312285635668</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.50313480331181</v>
       </c>
       <c r="N23">
-        <v>13.74644936028626</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.33820587360278</v>
+        <v>15.48834318833433</v>
       </c>
       <c r="C24">
-        <v>20.35036867532902</v>
+        <v>6.292761567225165</v>
       </c>
       <c r="D24">
-        <v>3.415969797361271</v>
+        <v>7.037598939917218</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>50.95593975924076</v>
+        <v>79.65920959115704</v>
       </c>
       <c r="G24">
-        <v>2.070533671947782</v>
+        <v>2.174002150426356</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.662758699114876</v>
+        <v>7.989593972912151</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.89783703114365</v>
       </c>
       <c r="L24">
-        <v>8.583901776814503</v>
+        <v>5.301924818629495</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.31742520335074</v>
       </c>
       <c r="N24">
-        <v>14.11407134956673</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.09100749527664</v>
+        <v>14.46497738154529</v>
       </c>
       <c r="C25">
-        <v>18.19519656893774</v>
+        <v>5.724378181375942</v>
       </c>
       <c r="D25">
-        <v>3.099509262643824</v>
+        <v>6.518436110832095</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>47.70615029286639</v>
+        <v>74.38058427242936</v>
       </c>
       <c r="G25">
-        <v>2.09704740725038</v>
+        <v>2.194244779116941</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.761587063033129</v>
+        <v>7.87284262864515</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.16615799757048</v>
       </c>
       <c r="L25">
-        <v>8.204170659384195</v>
+        <v>5.406962162829226</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.15848466988135</v>
       </c>
       <c r="N25">
-        <v>14.53124602910306</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.72985264118893</v>
+        <v>20.56721760780198</v>
       </c>
       <c r="C2">
-        <v>5.285850104797529</v>
+        <v>3.450500540522718</v>
       </c>
       <c r="D2">
-        <v>6.118365686423124</v>
+        <v>4.067043080912397</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>70.37798851833989</v>
+        <v>70.59954383540085</v>
       </c>
       <c r="G2">
-        <v>2.209474941596119</v>
+        <v>3.844794244299919</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.790189924360505</v>
+        <v>11.52536967609948</v>
       </c>
       <c r="K2">
-        <v>10.65025146568711</v>
+        <v>16.77824811752698</v>
       </c>
       <c r="L2">
-        <v>5.495252231349919</v>
+        <v>11.0516073186643</v>
       </c>
       <c r="M2">
-        <v>10.07398618158042</v>
+        <v>18.64989958963955</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.24487975099428</v>
+        <v>20.59140359385286</v>
       </c>
       <c r="C3">
-        <v>4.975090433056683</v>
+        <v>3.31192558407896</v>
       </c>
       <c r="D3">
-        <v>5.835953886375044</v>
+        <v>3.930455569181884</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>67.59742020596138</v>
+        <v>69.77525348130104</v>
       </c>
       <c r="G3">
-        <v>2.220060838333535</v>
+        <v>3.848371187880647</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.735948342360325</v>
+        <v>11.51528772533953</v>
       </c>
       <c r="K3">
-        <v>10.3157651430124</v>
+        <v>16.81308973338104</v>
       </c>
       <c r="L3">
-        <v>5.561555673402543</v>
+        <v>11.09308149487794</v>
       </c>
       <c r="M3">
-        <v>10.03554133048448</v>
+        <v>18.71376382645267</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.95441036685387</v>
+        <v>20.61255952927002</v>
       </c>
       <c r="C4">
-        <v>4.777325011943442</v>
+        <v>3.222812220202493</v>
       </c>
       <c r="D4">
-        <v>5.65701734487573</v>
+        <v>3.843166324378965</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>65.85910706344202</v>
+        <v>69.26632504651096</v>
       </c>
       <c r="G4">
-        <v>2.226708868208515</v>
+        <v>3.850680100466366</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.703433160265314</v>
+        <v>11.50927960021175</v>
       </c>
       <c r="K4">
-        <v>10.11826251058395</v>
+        <v>16.83953969445869</v>
       </c>
       <c r="L4">
-        <v>5.605355687129319</v>
+        <v>11.12017425581475</v>
       </c>
       <c r="M4">
-        <v>10.02073981086154</v>
+        <v>18.75667504861791</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.83801241925863</v>
+        <v>20.62276370249883</v>
       </c>
       <c r="C5">
-        <v>4.694954752875467</v>
+        <v>3.185501894069224</v>
       </c>
       <c r="D5">
-        <v>5.582722099203843</v>
+        <v>3.806757267809792</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>65.14341759888555</v>
+        <v>69.05836091342678</v>
       </c>
       <c r="G5">
-        <v>2.229457698192855</v>
+        <v>3.851649437185744</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.690370006514653</v>
+        <v>11.50687711971054</v>
       </c>
       <c r="K5">
-        <v>10.03982521669769</v>
+        <v>16.85158673916519</v>
       </c>
       <c r="L5">
-        <v>5.623968009992447</v>
+        <v>11.13162492802477</v>
       </c>
       <c r="M5">
-        <v>10.01685130341419</v>
+        <v>18.77509137806127</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.81880772041503</v>
+        <v>20.62455361063181</v>
       </c>
       <c r="C6">
-        <v>4.6811690739176</v>
+        <v>3.179246938819651</v>
       </c>
       <c r="D6">
-        <v>5.570302849494507</v>
+        <v>3.800661682892788</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65.02415246398125</v>
+        <v>69.02379804218936</v>
       </c>
       <c r="G6">
-        <v>2.229916604938557</v>
+        <v>3.851812115454563</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.688211856817724</v>
+        <v>11.50648096206295</v>
       </c>
       <c r="K6">
-        <v>10.02692634201723</v>
+        <v>16.85366365224009</v>
       </c>
       <c r="L6">
-        <v>5.627104319853315</v>
+        <v>11.13355110269251</v>
       </c>
       <c r="M6">
-        <v>10.01633300333603</v>
+        <v>18.77820553496748</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.95283242118544</v>
+        <v>20.61269074117126</v>
       </c>
       <c r="C7">
-        <v>4.77622137481359</v>
+        <v>3.222313048160878</v>
       </c>
       <c r="D7">
-        <v>5.656020923643144</v>
+        <v>3.842678659717425</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>65.84948391456238</v>
+        <v>69.26352250609447</v>
       </c>
       <c r="G7">
-        <v>2.226745776050934</v>
+        <v>3.850693058002461</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.703256243227262</v>
+        <v>11.50924701367717</v>
       </c>
       <c r="K7">
-        <v>10.11719630197458</v>
+        <v>16.83969703373071</v>
       </c>
       <c r="L7">
-        <v>5.605603624792641</v>
+        <v>11.12032702168717</v>
       </c>
       <c r="M7">
-        <v>10.02067878438146</v>
+        <v>18.75691965400103</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56119441074112</v>
+        <v>20.57424685581486</v>
       </c>
       <c r="C8">
-        <v>5.180123627620875</v>
+        <v>3.403565201205232</v>
       </c>
       <c r="D8">
-        <v>6.02214475671517</v>
+        <v>4.020671352054241</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>69.42595287621394</v>
+        <v>70.31599298491962</v>
       </c>
       <c r="G8">
-        <v>2.213095708753067</v>
+        <v>3.846004258187846</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.771316436592739</v>
+        <v>11.52185562992348</v>
       </c>
       <c r="K8">
-        <v>10.53332575450502</v>
+        <v>16.78921014706729</v>
       </c>
       <c r="L8">
-        <v>5.517463901608093</v>
+        <v>11.0655703878617</v>
       </c>
       <c r="M8">
-        <v>10.05886067690024</v>
+        <v>18.67115220911004</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.80702584791617</v>
+        <v>20.54897325132769</v>
       </c>
       <c r="C9">
-        <v>5.918785898931969</v>
+        <v>3.726428147134247</v>
       </c>
       <c r="D9">
-        <v>6.696041413411277</v>
+        <v>4.341666332362025</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>76.17704263181292</v>
+        <v>72.35167359064224</v>
       </c>
       <c r="G9">
-        <v>2.187384245678702</v>
+        <v>3.837698464383422</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.911614009303851</v>
+        <v>11.54802562892953</v>
       </c>
       <c r="K9">
-        <v>11.40916947617216</v>
+        <v>16.73045258309247</v>
       </c>
       <c r="L9">
-        <v>5.369825112530578</v>
+        <v>10.97106476426886</v>
       </c>
       <c r="M9">
-        <v>10.20677203478996</v>
+        <v>18.53232096406559</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.74920879090132</v>
+        <v>20.56101505536672</v>
       </c>
       <c r="C10">
-        <v>6.432164023040696</v>
+        <v>3.943118649907817</v>
       </c>
       <c r="D10">
-        <v>7.16477668326063</v>
+        <v>4.559392485985184</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>80.9636955202799</v>
+        <v>73.82226292740151</v>
       </c>
       <c r="G10">
-        <v>2.168952717020655</v>
+        <v>3.832131197531965</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.019739998273097</v>
+        <v>11.56813302274881</v>
       </c>
       <c r="K10">
-        <v>12.08638103552066</v>
+        <v>16.71195475266283</v>
       </c>
       <c r="L10">
-        <v>5.277827836183304</v>
+        <v>10.9094220962124</v>
       </c>
       <c r="M10">
-        <v>10.36442571507603</v>
+        <v>18.44823804266672</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.18307648568999</v>
+        <v>20.57313340693244</v>
       </c>
       <c r="C11">
-        <v>6.660263394388596</v>
+        <v>4.03714105011611</v>
       </c>
       <c r="D11">
-        <v>7.372588273163768</v>
+        <v>4.654339116989576</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>83.10313253942195</v>
+        <v>74.48420854127289</v>
       </c>
       <c r="G11">
-        <v>2.160620399501501</v>
+        <v>3.829713196096534</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.070251423769214</v>
+        <v>11.57747136710586</v>
       </c>
       <c r="K11">
-        <v>12.40348942929704</v>
+        <v>16.70891455508393</v>
       </c>
       <c r="L11">
-        <v>5.239849102933267</v>
+        <v>10.88305909906587</v>
       </c>
       <c r="M11">
-        <v>10.44778687685005</v>
+        <v>18.4138805459841</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.34812051070334</v>
+        <v>20.57867500078321</v>
       </c>
       <c r="C12">
-        <v>6.745948189931683</v>
+        <v>4.072083970373098</v>
       </c>
       <c r="D12">
-        <v>7.450538994258077</v>
+        <v>4.689691786349909</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.90792397195447</v>
+        <v>74.73372464045225</v>
       </c>
       <c r="G12">
-        <v>2.157468238398526</v>
+        <v>3.828813924326566</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.089590660328144</v>
+        <v>11.58103498997018</v>
       </c>
       <c r="K12">
-        <v>12.58719248216851</v>
+        <v>16.70853663084583</v>
       </c>
       <c r="L12">
-        <v>5.226053628721184</v>
+        <v>10.87331660764635</v>
       </c>
       <c r="M12">
-        <v>10.48111563365794</v>
+        <v>18.40143023675516</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.31254182401052</v>
+        <v>20.57743919696922</v>
       </c>
       <c r="C13">
-        <v>6.727523594704471</v>
+        <v>4.064587894482044</v>
       </c>
       <c r="D13">
-        <v>7.433783271551932</v>
+        <v>4.68210488819432</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.73483346414943</v>
+        <v>74.68004010386188</v>
       </c>
       <c r="G13">
-        <v>2.158147050585284</v>
+        <v>3.829006872039133</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.085415828383733</v>
+        <v>11.58026628380106</v>
       </c>
       <c r="K13">
-        <v>12.54772380634826</v>
+        <v>16.70858362823897</v>
       </c>
       <c r="L13">
-        <v>5.228998140911787</v>
+        <v>10.87540413871853</v>
       </c>
       <c r="M13">
-        <v>10.4738578823325</v>
+        <v>18.40408671525482</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.1966396930321</v>
+        <v>20.57357024134564</v>
       </c>
       <c r="C14">
-        <v>6.667326022844536</v>
+        <v>4.040029113494914</v>
       </c>
       <c r="D14">
-        <v>7.379015973264296</v>
+        <v>4.657259722701243</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>83.16944974392293</v>
+        <v>74.50476016869278</v>
       </c>
       <c r="G14">
-        <v>2.160361034243767</v>
+        <v>3.82963888491875</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.071838101028433</v>
+        <v>11.57776400024586</v>
       </c>
       <c r="K14">
-        <v>12.41864586361574</v>
+        <v>16.70886796370972</v>
       </c>
       <c r="L14">
-        <v>5.238702207177488</v>
+        <v>10.88225276075231</v>
       </c>
       <c r="M14">
-        <v>10.45049302518281</v>
+        <v>18.41284502339959</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.12574402084093</v>
+        <v>20.57132437205031</v>
       </c>
       <c r="C15">
-        <v>6.630366150781105</v>
+        <v>4.024899847266148</v>
       </c>
       <c r="D15">
-        <v>7.345373907516668</v>
+        <v>4.641962665922815</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>82.82244213036472</v>
+        <v>74.39724258792202</v>
       </c>
       <c r="G15">
-        <v>2.161717427644824</v>
+        <v>3.830028140240317</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.06354959181556</v>
+        <v>11.57623484291878</v>
       </c>
       <c r="K15">
-        <v>12.35978280956962</v>
+        <v>16.70914284197712</v>
       </c>
       <c r="L15">
-        <v>5.244723524434349</v>
+        <v>10.8864790505072</v>
       </c>
       <c r="M15">
-        <v>10.43641349295559</v>
+        <v>18.4182826974986</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.7209588324079</v>
+        <v>20.56035654562072</v>
       </c>
       <c r="C16">
-        <v>6.417155178292604</v>
+        <v>3.93688186418665</v>
       </c>
       <c r="D16">
-        <v>7.151089531562163</v>
+        <v>4.553103949082576</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>80.82311884728827</v>
+        <v>73.77884992085174</v>
       </c>
       <c r="G16">
-        <v>2.169497940474407</v>
+        <v>3.83229151636259</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.016467359185899</v>
+        <v>11.56752658064651</v>
       </c>
       <c r="K16">
-        <v>12.06592749124965</v>
+        <v>16.71226164118249</v>
       </c>
       <c r="L16">
-        <v>5.280390168353092</v>
+        <v>10.91117869073766</v>
       </c>
       <c r="M16">
-        <v>10.35921950612756</v>
+        <v>18.45056174526771</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.47396664293603</v>
+        <v>20.5553276319562</v>
       </c>
       <c r="C17">
-        <v>6.285024271882607</v>
+        <v>3.881714674201192</v>
       </c>
       <c r="D17">
-        <v>7.030537081782698</v>
+        <v>4.497533111404743</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>79.58689093639251</v>
+        <v>73.39758629478318</v>
       </c>
       <c r="G17">
-        <v>2.174281447462255</v>
+        <v>3.833709296575864</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.987937392571226</v>
+        <v>11.56223327673663</v>
       </c>
       <c r="K17">
-        <v>11.88746803272677</v>
+        <v>16.71555200767268</v>
       </c>
       <c r="L17">
-        <v>5.303281773149127</v>
+        <v>10.92676048630379</v>
       </c>
       <c r="M17">
-        <v>10.31490615789115</v>
+        <v>18.47136110911618</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.33239717106321</v>
+        <v>20.55306036423506</v>
       </c>
       <c r="C18">
-        <v>6.208507910600314</v>
+        <v>3.849555899823631</v>
       </c>
       <c r="D18">
-        <v>6.960685713910173</v>
+        <v>4.465185121437658</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>78.87225157085838</v>
+        <v>73.17763958983971</v>
       </c>
       <c r="G18">
-        <v>2.177038008066849</v>
+        <v>3.834535556843778</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.971650947164339</v>
+        <v>11.55920673123873</v>
       </c>
       <c r="K18">
-        <v>11.78548814601389</v>
+        <v>16.71795042784567</v>
       </c>
       <c r="L18">
-        <v>5.316810799459681</v>
+        <v>10.93588076245412</v>
       </c>
       <c r="M18">
-        <v>10.29050874743121</v>
+        <v>18.48369068628653</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.28454987341792</v>
+        <v>20.55240014278284</v>
       </c>
       <c r="C19">
-        <v>6.182509254113356</v>
+        <v>3.838594203120074</v>
       </c>
       <c r="D19">
-        <v>6.936946233626968</v>
+        <v>4.454166906087702</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>78.62966862048044</v>
+        <v>73.10306132408051</v>
       </c>
       <c r="G19">
-        <v>2.177972353530416</v>
+        <v>3.834817170811466</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.966157199851737</v>
+        <v>11.55818509407107</v>
       </c>
       <c r="K19">
-        <v>11.75107401084277</v>
+        <v>16.71884935403671</v>
       </c>
       <c r="L19">
-        <v>5.321452900793213</v>
+        <v>10.93899589840531</v>
       </c>
       <c r="M19">
-        <v>10.28243291863018</v>
+        <v>18.48792817366405</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.50020844761857</v>
+        <v>20.55579827280392</v>
       </c>
       <c r="C20">
-        <v>6.299142847593678</v>
+        <v>3.887631673005199</v>
       </c>
       <c r="D20">
-        <v>7.043422937968642</v>
+        <v>4.503488673899182</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>79.71886110028856</v>
+        <v>73.43824114291431</v>
       </c>
       <c r="G20">
-        <v>2.173771725629335</v>
+        <v>3.833557255418713</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.990961556662237</v>
+        <v>11.56279489353336</v>
       </c>
       <c r="K20">
-        <v>11.90639653405512</v>
+        <v>16.71514937978407</v>
       </c>
       <c r="L20">
-        <v>5.300807216821125</v>
+        <v>10.92508542676549</v>
       </c>
       <c r="M20">
-        <v>10.31950991685861</v>
+        <v>18.46910906412908</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.23066255587755</v>
+        <v>20.5746808159484</v>
       </c>
       <c r="C21">
-        <v>6.685025482887132</v>
+        <v>4.047260618753361</v>
       </c>
       <c r="D21">
-        <v>7.395122282275643</v>
+        <v>4.664573765495493</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>83.33566086683135</v>
+        <v>74.55627637602613</v>
       </c>
       <c r="G21">
-        <v>2.159710687106351</v>
+        <v>3.82945280387909</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.075820281447122</v>
+        <v>11.57849823917585</v>
       </c>
       <c r="K21">
-        <v>12.45661747980302</v>
+        <v>16.70876345865512</v>
       </c>
       <c r="L21">
-        <v>5.235835720322606</v>
+        <v>10.88023463061802</v>
       </c>
       <c r="M21">
-        <v>10.45730731247519</v>
+        <v>18.41025729100388</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.71243767311324</v>
+        <v>20.59257260653813</v>
       </c>
       <c r="C22">
-        <v>6.933244172070873</v>
+        <v>4.147730426233403</v>
       </c>
       <c r="D22">
-        <v>7.620671545043496</v>
+        <v>4.766341316517289</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.66830399764426</v>
+        <v>75.2802224563446</v>
       </c>
       <c r="G22">
-        <v>2.150536639796651</v>
+        <v>3.826865693774279</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.13252600840252</v>
+        <v>11.5889208922814</v>
       </c>
       <c r="K22">
-        <v>12.98740040874033</v>
+        <v>16.70909725675564</v>
       </c>
       <c r="L22">
-        <v>5.196807092871686</v>
+        <v>10.85232411566752</v>
       </c>
       <c r="M22">
-        <v>10.55767960146528</v>
+        <v>18.37505929005197</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.45489766364348</v>
+        <v>20.58251650748877</v>
       </c>
       <c r="C23">
-        <v>6.801095434672853</v>
+        <v>4.094462628061547</v>
       </c>
       <c r="D23">
-        <v>7.500671046689029</v>
+        <v>4.712350922499212</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.42611148833201</v>
+        <v>74.89450126275527</v>
       </c>
       <c r="G23">
-        <v>2.155433172268748</v>
+        <v>3.828237789208919</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.102139355583889</v>
+        <v>11.58334356699546</v>
       </c>
       <c r="K23">
-        <v>12.70522084581331</v>
+        <v>16.70850667695965</v>
       </c>
       <c r="L23">
-        <v>5.217312285635668</v>
+        <v>10.86709244422874</v>
       </c>
       <c r="M23">
-        <v>10.50313480331181</v>
+        <v>18.39354624207727</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.48834318833433</v>
+        <v>20.55558355245772</v>
       </c>
       <c r="C24">
-        <v>6.292761567225165</v>
+        <v>3.884957975409139</v>
       </c>
       <c r="D24">
-        <v>7.037598939917218</v>
+        <v>4.500797407792927</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>79.65920959115704</v>
+        <v>73.41986342149652</v>
       </c>
       <c r="G24">
-        <v>2.174002150426356</v>
+        <v>3.833625958456372</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.989593972912151</v>
+        <v>11.56254093473491</v>
       </c>
       <c r="K24">
-        <v>11.89783703114365</v>
+        <v>16.71532982942677</v>
       </c>
       <c r="L24">
-        <v>5.301924818629495</v>
+        <v>10.92584221621257</v>
       </c>
       <c r="M24">
-        <v>10.31742520335074</v>
+        <v>18.47012605573893</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.46497738154529</v>
+        <v>20.55043554600771</v>
       </c>
       <c r="C25">
-        <v>5.724378181375942</v>
+        <v>3.642648163456919</v>
       </c>
       <c r="D25">
-        <v>6.518436110832095</v>
+        <v>4.257944247699928</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>74.38058427242936</v>
+        <v>71.80480133351483</v>
       </c>
       <c r="G25">
-        <v>2.194244779116941</v>
+        <v>3.839850952165561</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.87284262864515</v>
+        <v>11.54079128903177</v>
       </c>
       <c r="K25">
-        <v>11.16615799757048</v>
+        <v>16.74202317816166</v>
       </c>
       <c r="L25">
-        <v>5.406962162829226</v>
+        <v>10.99525889667018</v>
       </c>
       <c r="M25">
-        <v>10.15848466988135</v>
+        <v>18.5667334342666</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.56721760780198</v>
+        <v>13.72985264118908</v>
       </c>
       <c r="C2">
-        <v>3.450500540522718</v>
+        <v>5.285850104797478</v>
       </c>
       <c r="D2">
-        <v>4.067043080912397</v>
+        <v>6.118365686422974</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>70.59954383540085</v>
+        <v>70.37798851833965</v>
       </c>
       <c r="G2">
-        <v>3.844794244299919</v>
+        <v>2.209474941595973</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.52536967609948</v>
+        <v>7.79018992436061</v>
       </c>
       <c r="K2">
-        <v>16.77824811752698</v>
+        <v>10.65025146568726</v>
       </c>
       <c r="L2">
-        <v>11.0516073186643</v>
+        <v>5.495252231350073</v>
       </c>
       <c r="M2">
-        <v>18.64989958963955</v>
+        <v>10.07398618158061</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.59140359385286</v>
+        <v>13.24487975099426</v>
       </c>
       <c r="C3">
-        <v>3.31192558407896</v>
+        <v>4.975090433057113</v>
       </c>
       <c r="D3">
-        <v>3.930455569181884</v>
+        <v>5.835953886375001</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.77525348130104</v>
+        <v>67.59742020596167</v>
       </c>
       <c r="G3">
-        <v>3.848371187880647</v>
+        <v>2.220060838333669</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.51528772533953</v>
+        <v>7.735948342360295</v>
       </c>
       <c r="K3">
-        <v>16.81308973338104</v>
+        <v>10.31576514301231</v>
       </c>
       <c r="L3">
-        <v>11.09308149487794</v>
+        <v>5.561555673402463</v>
       </c>
       <c r="M3">
-        <v>18.71376382645267</v>
+        <v>10.03554133048437</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.61255952927002</v>
+        <v>12.95441036685406</v>
       </c>
       <c r="C4">
-        <v>3.222812220202493</v>
+        <v>4.777325011943636</v>
       </c>
       <c r="D4">
-        <v>3.843166324378965</v>
+        <v>5.657017344875845</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>69.26632504651096</v>
+        <v>65.85910706344218</v>
       </c>
       <c r="G4">
-        <v>3.850680100466366</v>
+        <v>2.226708868208251</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.50927960021175</v>
+        <v>7.70343316026548</v>
       </c>
       <c r="K4">
-        <v>16.83953969445869</v>
+        <v>10.11826251058402</v>
       </c>
       <c r="L4">
-        <v>11.12017425581475</v>
+        <v>5.605355687129246</v>
       </c>
       <c r="M4">
-        <v>18.75667504861791</v>
+        <v>10.02073981086161</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.62276370249883</v>
+        <v>12.83801241925864</v>
       </c>
       <c r="C5">
-        <v>3.185501894069224</v>
+        <v>4.694954752875712</v>
       </c>
       <c r="D5">
-        <v>3.806757267809792</v>
+        <v>5.582722099203974</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>69.05836091342678</v>
+        <v>65.14341759888531</v>
       </c>
       <c r="G5">
-        <v>3.851649437185744</v>
+        <v>2.229457698192987</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.50687711971054</v>
+        <v>7.69037000651462</v>
       </c>
       <c r="K5">
-        <v>16.85158673916519</v>
+        <v>10.03982521669766</v>
       </c>
       <c r="L5">
-        <v>11.13162492802477</v>
+        <v>5.62396800999224</v>
       </c>
       <c r="M5">
-        <v>18.77509137806127</v>
+        <v>10.0168513034141</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.62455361063181</v>
+        <v>12.81880772041522</v>
       </c>
       <c r="C6">
-        <v>3.179246938819651</v>
+        <v>4.681169073917381</v>
       </c>
       <c r="D6">
-        <v>3.800661682892788</v>
+        <v>5.570302849494633</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>69.02379804218936</v>
+        <v>65.02415246398159</v>
       </c>
       <c r="G6">
-        <v>3.851812115454563</v>
+        <v>2.229916604938426</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.50648096206295</v>
+        <v>7.688211856817707</v>
       </c>
       <c r="K6">
-        <v>16.85366365224009</v>
+        <v>10.02692634201745</v>
       </c>
       <c r="L6">
-        <v>11.13355110269251</v>
+        <v>5.627104319853289</v>
       </c>
       <c r="M6">
-        <v>18.77820553496748</v>
+        <v>10.01633300333617</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.61269074117126</v>
+        <v>12.95283242118538</v>
       </c>
       <c r="C7">
-        <v>3.222313048160878</v>
+        <v>4.776221374813581</v>
       </c>
       <c r="D7">
-        <v>3.842678659717425</v>
+        <v>5.656020923643328</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>69.26352250609447</v>
+        <v>65.8494839145625</v>
       </c>
       <c r="G7">
-        <v>3.850693058002461</v>
+        <v>2.226745776050673</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.50924701367717</v>
+        <v>7.70325624322728</v>
       </c>
       <c r="K7">
-        <v>16.83969703373071</v>
+        <v>10.11719630197456</v>
       </c>
       <c r="L7">
-        <v>11.12032702168717</v>
+        <v>5.605603624792548</v>
       </c>
       <c r="M7">
-        <v>18.75691965400103</v>
+        <v>10.02067878438138</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.57424685581486</v>
+        <v>13.56119441074103</v>
       </c>
       <c r="C8">
-        <v>3.403565201205232</v>
+        <v>5.180123627620638</v>
       </c>
       <c r="D8">
-        <v>4.020671352054241</v>
+        <v>6.022144756715265</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>70.31599298491962</v>
+        <v>69.42595287621398</v>
       </c>
       <c r="G8">
-        <v>3.846004258187846</v>
+        <v>2.213095708752936</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.52185562992348</v>
+        <v>7.771316436592778</v>
       </c>
       <c r="K8">
-        <v>16.78921014706729</v>
+        <v>10.53332575450496</v>
       </c>
       <c r="L8">
-        <v>11.0655703878617</v>
+        <v>5.517463901608094</v>
       </c>
       <c r="M8">
-        <v>18.67115220911004</v>
+        <v>10.05886067690017</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.54897325132769</v>
+        <v>14.80702584791614</v>
       </c>
       <c r="C9">
-        <v>3.726428147134247</v>
+        <v>5.918785898931837</v>
       </c>
       <c r="D9">
-        <v>4.341666332362025</v>
+        <v>6.696041413411398</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.35167359064224</v>
+        <v>76.17704263181302</v>
       </c>
       <c r="G9">
-        <v>3.837698464383422</v>
+        <v>2.18738424567844</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.54802562892953</v>
+        <v>7.911614009303807</v>
       </c>
       <c r="K9">
-        <v>16.73045258309247</v>
+        <v>11.40916947617213</v>
       </c>
       <c r="L9">
-        <v>10.97106476426886</v>
+        <v>5.369825112530526</v>
       </c>
       <c r="M9">
-        <v>18.53232096406559</v>
+        <v>10.2067720347899</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.56101505536672</v>
+        <v>15.74920879090131</v>
       </c>
       <c r="C10">
-        <v>3.943118649907817</v>
+        <v>6.432164023040704</v>
       </c>
       <c r="D10">
-        <v>4.559392485985184</v>
+        <v>7.164776683260741</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>73.82226292740151</v>
+        <v>80.96369552027993</v>
       </c>
       <c r="G10">
-        <v>3.832131197531965</v>
+        <v>2.168952717020273</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.56813302274881</v>
+        <v>8.019739998273012</v>
       </c>
       <c r="K10">
-        <v>16.71195475266283</v>
+        <v>12.08638103552067</v>
       </c>
       <c r="L10">
-        <v>10.9094220962124</v>
+        <v>5.277827836183163</v>
       </c>
       <c r="M10">
-        <v>18.44823804266672</v>
+        <v>10.36442571507595</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.57313340693244</v>
+        <v>16.18307648569</v>
       </c>
       <c r="C11">
-        <v>4.03714105011611</v>
+        <v>6.660263394388862</v>
       </c>
       <c r="D11">
-        <v>4.654339116989576</v>
+        <v>7.372588273163654</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>74.48420854127289</v>
+        <v>83.10313253942152</v>
       </c>
       <c r="G11">
-        <v>3.829713196096534</v>
+        <v>2.160620399501743</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.57747136710586</v>
+        <v>8.07025142376918</v>
       </c>
       <c r="K11">
-        <v>16.70891455508393</v>
+        <v>12.40348942929701</v>
       </c>
       <c r="L11">
-        <v>10.88305909906587</v>
+        <v>5.239849102933247</v>
       </c>
       <c r="M11">
-        <v>18.4138805459841</v>
+        <v>10.44778687685009</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.57867500078321</v>
+        <v>16.34812051070333</v>
       </c>
       <c r="C12">
-        <v>4.072083970373098</v>
+        <v>6.745948189931883</v>
       </c>
       <c r="D12">
-        <v>4.689691786349909</v>
+        <v>7.45053899425813</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>74.73372464045225</v>
+        <v>83.90792397195521</v>
       </c>
       <c r="G12">
-        <v>3.828813924326566</v>
+        <v>2.157468238398656</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.58103498997018</v>
+        <v>8.089590660328206</v>
       </c>
       <c r="K12">
-        <v>16.70853663084583</v>
+        <v>12.5871924821686</v>
       </c>
       <c r="L12">
-        <v>10.87331660764635</v>
+        <v>5.226053628721273</v>
       </c>
       <c r="M12">
-        <v>18.40143023675516</v>
+        <v>10.48111563365793</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.57743919696922</v>
+        <v>16.31254182401057</v>
       </c>
       <c r="C13">
-        <v>4.064587894482044</v>
+        <v>6.727523594704396</v>
       </c>
       <c r="D13">
-        <v>4.68210488819432</v>
+        <v>7.433783271551879</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>74.68004010386188</v>
+        <v>83.73483346414886</v>
       </c>
       <c r="G13">
-        <v>3.829006872039133</v>
+        <v>2.158147050585418</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.58026628380106</v>
+        <v>8.085415828383745</v>
       </c>
       <c r="K13">
-        <v>16.70858362823897</v>
+        <v>12.5477238063482</v>
       </c>
       <c r="L13">
-        <v>10.87540413871853</v>
+        <v>5.228998140911798</v>
       </c>
       <c r="M13">
-        <v>18.40408671525482</v>
+        <v>10.47385788233256</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.57357024134564</v>
+        <v>16.19663969303205</v>
       </c>
       <c r="C14">
-        <v>4.040029113494914</v>
+        <v>6.667326022844436</v>
       </c>
       <c r="D14">
-        <v>4.657259722701243</v>
+        <v>7.379015973264416</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>74.50476016869278</v>
+        <v>83.16944974392285</v>
       </c>
       <c r="G14">
-        <v>3.82963888491875</v>
+        <v>2.160361034243905</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.57776400024586</v>
+        <v>8.071838101028476</v>
       </c>
       <c r="K14">
-        <v>16.70886796370972</v>
+        <v>12.41864586361576</v>
       </c>
       <c r="L14">
-        <v>10.88225276075231</v>
+        <v>5.238702207177459</v>
       </c>
       <c r="M14">
-        <v>18.41284502339959</v>
+        <v>10.45049302518277</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.57132437205031</v>
+        <v>16.12574402084098</v>
       </c>
       <c r="C15">
-        <v>4.024899847266148</v>
+        <v>6.630366150781232</v>
       </c>
       <c r="D15">
-        <v>4.641962665922815</v>
+        <v>7.345373907516664</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>74.39724258792202</v>
+        <v>82.82244213036421</v>
       </c>
       <c r="G15">
-        <v>3.830028140240317</v>
+        <v>2.161717427644937</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.57623484291878</v>
+        <v>8.063549591815599</v>
       </c>
       <c r="K15">
-        <v>16.70914284197712</v>
+        <v>12.35978280956966</v>
       </c>
       <c r="L15">
-        <v>10.8864790505072</v>
+        <v>5.244723524434384</v>
       </c>
       <c r="M15">
-        <v>18.4182826974986</v>
+        <v>10.43641349295565</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.56035654562072</v>
+        <v>15.72095883240784</v>
       </c>
       <c r="C16">
-        <v>3.93688186418665</v>
+        <v>6.417155178292726</v>
       </c>
       <c r="D16">
-        <v>4.553103949082576</v>
+        <v>7.151089531562238</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>73.77884992085174</v>
+        <v>80.82311884728846</v>
       </c>
       <c r="G16">
-        <v>3.83229151636259</v>
+        <v>2.16949794047439</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.56752658064651</v>
+        <v>8.016467359185896</v>
       </c>
       <c r="K16">
-        <v>16.71226164118249</v>
+        <v>12.06592749124962</v>
       </c>
       <c r="L16">
-        <v>10.91117869073766</v>
+        <v>5.280390168353042</v>
       </c>
       <c r="M16">
-        <v>18.45056174526771</v>
+        <v>10.35921950612749</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.5553276319562</v>
+        <v>15.47396664293601</v>
       </c>
       <c r="C17">
-        <v>3.881714674201192</v>
+        <v>6.285024271882723</v>
       </c>
       <c r="D17">
-        <v>4.497533111404743</v>
+        <v>7.030537081782703</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>73.39758629478318</v>
+        <v>79.58689093639299</v>
       </c>
       <c r="G17">
-        <v>3.833709296575864</v>
+        <v>2.174281447461843</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.56223327673663</v>
+        <v>7.987937392571222</v>
       </c>
       <c r="K17">
-        <v>16.71555200767268</v>
+        <v>11.88746803272674</v>
       </c>
       <c r="L17">
-        <v>10.92676048630379</v>
+        <v>5.30328177314914</v>
       </c>
       <c r="M17">
-        <v>18.47136110911618</v>
+        <v>10.31490615789111</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.55306036423506</v>
+        <v>15.33239717106319</v>
       </c>
       <c r="C18">
-        <v>3.849555899823631</v>
+        <v>6.208507910600216</v>
       </c>
       <c r="D18">
-        <v>4.465185121437658</v>
+        <v>6.960685713910156</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>73.17763958983971</v>
+        <v>78.87225157085823</v>
       </c>
       <c r="G18">
-        <v>3.834535556843778</v>
+        <v>2.17703800806647</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.55920673123873</v>
+        <v>7.971650947164443</v>
       </c>
       <c r="K18">
-        <v>16.71795042784567</v>
+        <v>11.78548814601389</v>
       </c>
       <c r="L18">
-        <v>10.93588076245412</v>
+        <v>5.316810799459743</v>
       </c>
       <c r="M18">
-        <v>18.48369068628653</v>
+        <v>10.29050874743122</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.55240014278284</v>
+        <v>15.28454987341796</v>
       </c>
       <c r="C19">
-        <v>3.838594203120074</v>
+        <v>6.182509254113323</v>
       </c>
       <c r="D19">
-        <v>4.454166906087702</v>
+        <v>6.936946233626837</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>73.10306132408051</v>
+        <v>78.62966862048034</v>
       </c>
       <c r="G19">
-        <v>3.834817170811466</v>
+        <v>2.177972353530535</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.55818509407107</v>
+        <v>7.966157199851782</v>
       </c>
       <c r="K19">
-        <v>16.71884935403671</v>
+        <v>11.75107401084276</v>
       </c>
       <c r="L19">
-        <v>10.93899589840531</v>
+        <v>5.321452900793295</v>
       </c>
       <c r="M19">
-        <v>18.48792817366405</v>
+        <v>10.28243291863026</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.55579827280392</v>
+        <v>15.50020844761858</v>
       </c>
       <c r="C20">
-        <v>3.887631673005199</v>
+        <v>6.299142847593546</v>
       </c>
       <c r="D20">
-        <v>4.503488673899182</v>
+        <v>7.04342293796855</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>73.43824114291431</v>
+        <v>79.71886110028834</v>
       </c>
       <c r="G20">
-        <v>3.833557255418713</v>
+        <v>2.173771725629718</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.56279489353336</v>
+        <v>7.990961556662127</v>
       </c>
       <c r="K20">
-        <v>16.71514937978407</v>
+        <v>11.90639653405511</v>
       </c>
       <c r="L20">
-        <v>10.92508542676549</v>
+        <v>5.300807216821032</v>
       </c>
       <c r="M20">
-        <v>18.46910906412908</v>
+        <v>10.3195099168586</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.5746808159484</v>
+        <v>16.23066255587752</v>
       </c>
       <c r="C21">
-        <v>4.047260618753361</v>
+        <v>6.685025482887115</v>
       </c>
       <c r="D21">
-        <v>4.664573765495493</v>
+        <v>7.395122282275808</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>74.55627637602613</v>
+        <v>83.33566086683129</v>
       </c>
       <c r="G21">
-        <v>3.82945280387909</v>
+        <v>2.159710687106194</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.57849823917585</v>
+        <v>8.075820281447129</v>
       </c>
       <c r="K21">
-        <v>16.70876345865512</v>
+        <v>12.45661747980313</v>
       </c>
       <c r="L21">
-        <v>10.88023463061802</v>
+        <v>5.235835720322576</v>
       </c>
       <c r="M21">
-        <v>18.41025729100388</v>
+        <v>10.45730731247508</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.59257260653813</v>
+        <v>16.71243767311321</v>
       </c>
       <c r="C22">
-        <v>4.147730426233403</v>
+        <v>6.933244172070724</v>
       </c>
       <c r="D22">
-        <v>4.766341316517289</v>
+        <v>7.620671545043709</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>75.2802224563446</v>
+        <v>85.66830399764507</v>
       </c>
       <c r="G22">
-        <v>3.826865693774279</v>
+        <v>2.150536639796526</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.5889208922814</v>
+        <v>8.132526008402598</v>
       </c>
       <c r="K22">
-        <v>16.70909725675564</v>
+        <v>12.98740040874043</v>
       </c>
       <c r="L22">
-        <v>10.85232411566752</v>
+        <v>5.196807092871706</v>
       </c>
       <c r="M22">
-        <v>18.37505929005197</v>
+        <v>10.5576796014652</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.58251650748877</v>
+        <v>16.4548976636434</v>
       </c>
       <c r="C23">
-        <v>4.094462628061547</v>
+        <v>6.80109543467313</v>
       </c>
       <c r="D23">
-        <v>4.712350922499212</v>
+        <v>7.500671046689061</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>74.89450126275527</v>
+        <v>84.42611148833201</v>
       </c>
       <c r="G23">
-        <v>3.828237789208919</v>
+        <v>2.155433172268886</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.58334356699546</v>
+        <v>8.102139355583919</v>
       </c>
       <c r="K23">
-        <v>16.70850667695965</v>
+        <v>12.70522084581335</v>
       </c>
       <c r="L23">
-        <v>10.86709244422874</v>
+        <v>5.217312285635662</v>
       </c>
       <c r="M23">
-        <v>18.39354624207727</v>
+        <v>10.50313480331177</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.55558355245772</v>
+        <v>15.48834318833432</v>
       </c>
       <c r="C24">
-        <v>3.884957975409139</v>
+        <v>6.292761567225029</v>
       </c>
       <c r="D24">
-        <v>4.500797407792927</v>
+        <v>7.037598939917338</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>73.41986342149652</v>
+        <v>79.65920959115749</v>
       </c>
       <c r="G24">
-        <v>3.833625958456372</v>
+        <v>2.17400215042649</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.56254093473491</v>
+        <v>7.989593972912141</v>
       </c>
       <c r="K24">
-        <v>16.71532982942677</v>
+        <v>11.89783703114365</v>
       </c>
       <c r="L24">
-        <v>10.92584221621257</v>
+        <v>5.301924818629497</v>
       </c>
       <c r="M24">
-        <v>18.47012605573893</v>
+        <v>10.3174252033507</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.55043554600771</v>
+        <v>14.46497738154537</v>
       </c>
       <c r="C25">
-        <v>3.642648163456919</v>
+        <v>5.724378181376067</v>
       </c>
       <c r="D25">
-        <v>4.257944247699928</v>
+        <v>6.518436110832115</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>71.80480133351483</v>
+        <v>74.38058427242935</v>
       </c>
       <c r="G25">
-        <v>3.839850952165561</v>
+        <v>2.194244779116817</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.54079128903177</v>
+        <v>7.872842628645205</v>
       </c>
       <c r="K25">
-        <v>16.74202317816166</v>
+        <v>11.16615799757054</v>
       </c>
       <c r="L25">
-        <v>10.99525889667018</v>
+        <v>5.406962162829177</v>
       </c>
       <c r="M25">
-        <v>18.5667334342666</v>
+        <v>10.15848466988138</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.72985264118908</v>
+        <v>22.71329705539428</v>
       </c>
       <c r="C2">
-        <v>5.285850104797478</v>
+        <v>13.79674406896835</v>
       </c>
       <c r="D2">
-        <v>6.118365686422974</v>
+        <v>4.541862688152141</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>70.37798851833965</v>
+        <v>28.49218823937027</v>
       </c>
       <c r="G2">
-        <v>2.209474941595973</v>
+        <v>37.0974361257642</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.35443534782106</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.939195818955546</v>
       </c>
       <c r="J2">
-        <v>7.79018992436061</v>
+        <v>11.95466508217721</v>
       </c>
       <c r="K2">
-        <v>10.65025146568726</v>
+        <v>18.35866533933152</v>
       </c>
       <c r="L2">
-        <v>5.495252231350073</v>
+        <v>6.202188522811696</v>
       </c>
       <c r="M2">
-        <v>10.07398618158061</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.37891015590656</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.67131519049781</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.24487975099426</v>
+        <v>21.28342497226662</v>
       </c>
       <c r="C3">
-        <v>4.975090433057113</v>
+        <v>12.9319893704423</v>
       </c>
       <c r="D3">
-        <v>5.835953886375001</v>
+        <v>4.448875291369707</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>67.59742020596167</v>
+        <v>27.70455149816788</v>
       </c>
       <c r="G3">
-        <v>2.220060838333669</v>
+        <v>35.75130169098875</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.607847720081879</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.14259692048728</v>
       </c>
       <c r="J3">
-        <v>7.735948342360295</v>
+        <v>11.78882243363946</v>
       </c>
       <c r="K3">
-        <v>10.31576514301231</v>
+        <v>18.18682259358748</v>
       </c>
       <c r="L3">
-        <v>5.561555673402463</v>
+        <v>6.129477573013311</v>
       </c>
       <c r="M3">
-        <v>10.03554133048437</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.081547706127665</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.81119916402748</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.95441036685406</v>
+        <v>20.35439949463182</v>
       </c>
       <c r="C4">
-        <v>4.777325011943636</v>
+        <v>12.37434615730549</v>
       </c>
       <c r="D4">
-        <v>5.657017344875845</v>
+        <v>4.391198551600767</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>65.85910706344218</v>
+        <v>27.21834014672674</v>
       </c>
       <c r="G4">
-        <v>2.226708868208251</v>
+        <v>34.91233900349651</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.76888598073543</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.272532838853643</v>
       </c>
       <c r="J4">
-        <v>7.70343316026548</v>
+        <v>11.68950454661704</v>
       </c>
       <c r="K4">
-        <v>10.11826251058402</v>
+        <v>18.08491350918565</v>
       </c>
       <c r="L4">
-        <v>5.605355687129246</v>
+        <v>6.083229370500147</v>
       </c>
       <c r="M4">
-        <v>10.02073981086161</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.894080568065824</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.89877369697971</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.83801241925864</v>
+        <v>19.95665678583577</v>
       </c>
       <c r="C5">
-        <v>4.694954752875712</v>
+        <v>12.14634609618722</v>
       </c>
       <c r="D5">
-        <v>5.582722099203974</v>
+        <v>4.368323516267871</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>65.14341759888531</v>
+        <v>27.00941741734365</v>
       </c>
       <c r="G5">
-        <v>2.229457698192987</v>
+        <v>34.54922843096077</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.836317001273133</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.329585919846874</v>
       </c>
       <c r="J5">
-        <v>7.69037000651462</v>
+        <v>11.64620556899693</v>
       </c>
       <c r="K5">
-        <v>10.03982521669766</v>
+        <v>18.03692075052211</v>
       </c>
       <c r="L5">
-        <v>5.62396800999224</v>
+        <v>6.063496566681042</v>
       </c>
       <c r="M5">
-        <v>10.0168513034141</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.817583955879058</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.93496371315015</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.81880772041522</v>
+        <v>19.88202002407857</v>
       </c>
       <c r="C6">
-        <v>4.681169073917381</v>
+        <v>12.11536114800054</v>
       </c>
       <c r="D6">
-        <v>5.570302849494633</v>
+        <v>4.36545677076551</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65.02415246398159</v>
+        <v>26.96203571342623</v>
       </c>
       <c r="G6">
-        <v>2.229916604938426</v>
+        <v>34.46610298443193</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.848103736950381</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.34275514796979</v>
       </c>
       <c r="J6">
-        <v>7.688211856817707</v>
+        <v>11.63480909650855</v>
       </c>
       <c r="K6">
-        <v>10.02692634201745</v>
+        <v>18.02000679306887</v>
       </c>
       <c r="L6">
-        <v>5.627104319853289</v>
+        <v>6.059614416803947</v>
       </c>
       <c r="M6">
-        <v>10.01633300333617</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.80610067051536</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.94109461152202</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.95283242118538</v>
+        <v>20.32819810001581</v>
       </c>
       <c r="C7">
-        <v>4.776221374813581</v>
+        <v>12.39072811107624</v>
       </c>
       <c r="D7">
-        <v>5.656020923643328</v>
+        <v>4.393436102055913</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>65.8494839145625</v>
+        <v>27.18123706551757</v>
       </c>
       <c r="G7">
-        <v>2.226745776050673</v>
+        <v>34.84625017723549</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.771149108376632</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.282912402086323</v>
       </c>
       <c r="J7">
-        <v>7.70325624322728</v>
+        <v>11.67737792091491</v>
       </c>
       <c r="K7">
-        <v>10.11719630197456</v>
+        <v>18.05976702412658</v>
       </c>
       <c r="L7">
-        <v>5.605603624792548</v>
+        <v>6.081398462435875</v>
       </c>
       <c r="M7">
-        <v>10.02067878438138</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.896527092075329</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.8995952075454</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56119441074103</v>
+        <v>22.20529392602825</v>
       </c>
       <c r="C8">
-        <v>5.180123627620638</v>
+        <v>13.52792671052515</v>
       </c>
       <c r="D8">
-        <v>6.022144756715265</v>
+        <v>4.513204002159718</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>69.42595287621398</v>
+        <v>28.17742908048062</v>
       </c>
       <c r="G8">
-        <v>2.213095708752936</v>
+        <v>36.55862162229809</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.442410386748259</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.02076904488565</v>
       </c>
       <c r="J8">
-        <v>7.771316436592778</v>
+        <v>11.88197992880064</v>
       </c>
       <c r="K8">
-        <v>10.53332575450496</v>
+        <v>18.26667101377876</v>
       </c>
       <c r="L8">
-        <v>5.517463901608094</v>
+        <v>6.175454804746276</v>
       </c>
       <c r="M8">
-        <v>10.05886067690017</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.281856529548346</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.71998223889629</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.80702584791614</v>
+        <v>25.51229491499834</v>
       </c>
       <c r="C9">
-        <v>5.918785898931837</v>
+        <v>15.51567243151394</v>
       </c>
       <c r="D9">
-        <v>6.696041413411398</v>
+        <v>4.738756268144099</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>76.17704263181302</v>
+        <v>30.15980663397361</v>
       </c>
       <c r="G9">
-        <v>2.18738424567844</v>
+        <v>39.90391538179141</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.837513954901211</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.53015004465761</v>
       </c>
       <c r="J9">
-        <v>7.911614009303807</v>
+        <v>12.32265245818173</v>
       </c>
       <c r="K9">
-        <v>11.40916947617213</v>
+        <v>18.74458138188635</v>
       </c>
       <c r="L9">
-        <v>5.369825112530526</v>
+        <v>6.350201876645374</v>
       </c>
       <c r="M9">
-        <v>10.2067720347899</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.989930409098502</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.37960697444252</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.74920879090131</v>
+        <v>27.61475648473465</v>
       </c>
       <c r="C10">
-        <v>6.432164023040704</v>
+        <v>16.87031801279366</v>
       </c>
       <c r="D10">
-        <v>7.164776683260741</v>
+        <v>4.877743678442563</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>80.96369552027993</v>
+        <v>31.39028537121778</v>
       </c>
       <c r="G10">
-        <v>2.168952717020273</v>
+        <v>41.99199931113112</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.692965818429845</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.754089467060497</v>
       </c>
       <c r="J10">
-        <v>8.019739998273012</v>
+        <v>12.60019175117739</v>
       </c>
       <c r="K10">
-        <v>12.08638103552067</v>
+        <v>19.00504981831915</v>
       </c>
       <c r="L10">
-        <v>5.277827836183163</v>
+        <v>6.452249219989708</v>
       </c>
       <c r="M10">
-        <v>10.36442571507595</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.384782556584337</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.1443339820346</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.18307648569</v>
+        <v>27.89883085999731</v>
       </c>
       <c r="C11">
-        <v>6.660263394388862</v>
+        <v>17.60181148009219</v>
       </c>
       <c r="D11">
-        <v>7.372588273163654</v>
+        <v>4.739517287819718</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>83.10313253942152</v>
+        <v>30.32538256243066</v>
       </c>
       <c r="G11">
-        <v>2.160620399501743</v>
+        <v>40.65598162935856</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.699693514146646</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.845063263517929</v>
       </c>
       <c r="J11">
-        <v>8.07025142376918</v>
+        <v>12.26212934797804</v>
       </c>
       <c r="K11">
-        <v>12.40348942929701</v>
+        <v>18.2493439437556</v>
       </c>
       <c r="L11">
-        <v>5.239849102933247</v>
+        <v>6.389511170488182</v>
       </c>
       <c r="M11">
-        <v>10.44778687685009</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.728029083210213</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.12086690143895</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.34812051070333</v>
+        <v>27.72868440280297</v>
       </c>
       <c r="C12">
-        <v>6.745948189931883</v>
+        <v>17.92125589494871</v>
       </c>
       <c r="D12">
-        <v>7.45053899425813</v>
+        <v>4.600348819976562</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>83.90792397195521</v>
+        <v>29.19261025464586</v>
       </c>
       <c r="G12">
-        <v>2.157468238398656</v>
+        <v>39.14110260922784</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.030385394575696</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.853216823290063</v>
       </c>
       <c r="J12">
-        <v>8.089590660328206</v>
+        <v>11.92748331605122</v>
       </c>
       <c r="K12">
-        <v>12.5871924821686</v>
+        <v>17.58687920256307</v>
       </c>
       <c r="L12">
-        <v>5.226053628721273</v>
+        <v>6.391981024415168</v>
       </c>
       <c r="M12">
-        <v>10.48111563365793</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.096735968766801</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.17149689628971</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.31254182401057</v>
+        <v>27.168949548254</v>
       </c>
       <c r="C13">
-        <v>6.727523594704396</v>
+        <v>17.97568640850428</v>
       </c>
       <c r="D13">
-        <v>7.433783271551879</v>
+        <v>4.454842560399648</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>83.73483346414886</v>
+        <v>27.87070948981967</v>
       </c>
       <c r="G13">
-        <v>2.158147050585418</v>
+        <v>37.27604668482658</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.486700923060134</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.802607366472842</v>
       </c>
       <c r="J13">
-        <v>8.085415828383745</v>
+        <v>11.55471808159942</v>
       </c>
       <c r="K13">
-        <v>12.5477238063482</v>
+        <v>16.91726197602613</v>
       </c>
       <c r="L13">
-        <v>5.228998140911798</v>
+        <v>6.439681563097209</v>
       </c>
       <c r="M13">
-        <v>10.47385788233256</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.446019625862993</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.27817898843101</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.19663969303205</v>
+        <v>26.58779568129002</v>
       </c>
       <c r="C14">
-        <v>6.667326022844436</v>
+        <v>17.89962803344607</v>
       </c>
       <c r="D14">
-        <v>7.379015973264416</v>
+        <v>4.352546628686481</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>83.16944974392285</v>
+        <v>26.84325170443821</v>
       </c>
       <c r="G14">
-        <v>2.160361034243905</v>
+        <v>35.77858746758933</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.515180635173873</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.741987719254877</v>
       </c>
       <c r="J14">
-        <v>8.071838101028476</v>
+        <v>11.27300767752241</v>
       </c>
       <c r="K14">
-        <v>12.41864586361576</v>
+        <v>16.44180741570733</v>
       </c>
       <c r="L14">
-        <v>5.238702207177459</v>
+        <v>6.501375366087042</v>
       </c>
       <c r="M14">
-        <v>10.45049302518277</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.986238263451909</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.37927490184455</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.12574402084098</v>
+        <v>26.35463445916021</v>
       </c>
       <c r="C15">
-        <v>6.630366150781232</v>
+        <v>17.83015710097409</v>
       </c>
       <c r="D15">
-        <v>7.345373907516664</v>
+        <v>4.325428368708051</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>82.82244213036421</v>
+        <v>26.54296406315325</v>
       </c>
       <c r="G15">
-        <v>2.161717427644937</v>
+        <v>35.31913705876691</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.75456016554797</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.715817305743961</v>
       </c>
       <c r="J15">
-        <v>8.063549591815599</v>
+        <v>11.19335924812933</v>
       </c>
       <c r="K15">
-        <v>12.35978280956966</v>
+        <v>16.31796340130296</v>
       </c>
       <c r="L15">
-        <v>5.244723524434384</v>
+        <v>6.515923169510016</v>
       </c>
       <c r="M15">
-        <v>10.43641349295565</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.86965879466922</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.41360215111958</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.72095883240784</v>
+        <v>25.55285288356949</v>
       </c>
       <c r="C16">
-        <v>6.417155178292726</v>
+        <v>17.28119177740631</v>
       </c>
       <c r="D16">
-        <v>7.151089531562238</v>
+        <v>4.293278213125236</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>80.82311884728846</v>
+        <v>26.21663197870872</v>
       </c>
       <c r="G16">
-        <v>2.16949794047439</v>
+        <v>34.67422264019957</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.559230145363524</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.590741103578607</v>
       </c>
       <c r="J16">
-        <v>8.016467359185896</v>
+        <v>11.1352917324608</v>
       </c>
       <c r="K16">
-        <v>12.06592749124962</v>
+        <v>16.32289601078034</v>
       </c>
       <c r="L16">
-        <v>5.280390168353042</v>
+        <v>6.45745230246605</v>
       </c>
       <c r="M16">
-        <v>10.35921950612749</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.813450440657588</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.47931366877192</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.47396664293601</v>
+        <v>25.24965586886876</v>
       </c>
       <c r="C17">
-        <v>6.285024271882723</v>
+        <v>16.89363555386313</v>
       </c>
       <c r="D17">
-        <v>7.030537081782703</v>
+        <v>4.322578793618468</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>79.58689093639299</v>
+        <v>26.52581402902372</v>
       </c>
       <c r="G17">
-        <v>2.174281447461843</v>
+        <v>35.00246963507795</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.834291635522081</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.527093570839611</v>
       </c>
       <c r="J17">
-        <v>7.987937392571222</v>
+        <v>11.24262620769742</v>
       </c>
       <c r="K17">
-        <v>11.88746803272674</v>
+        <v>16.5788748586589</v>
       </c>
       <c r="L17">
-        <v>5.30328177314914</v>
+        <v>6.373630948807342</v>
       </c>
       <c r="M17">
-        <v>10.31490615789111</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.015850816605259</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.47757795001949</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.33239717106319</v>
+        <v>25.36637423640663</v>
       </c>
       <c r="C18">
-        <v>6.208507910600216</v>
+        <v>16.59450480889744</v>
       </c>
       <c r="D18">
-        <v>6.960685713910156</v>
+        <v>4.413928497877373</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>78.87225157085823</v>
+        <v>27.43706744491035</v>
       </c>
       <c r="G18">
-        <v>2.17703800806647</v>
+        <v>36.24318524195104</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.594521798667697</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.506630236077981</v>
       </c>
       <c r="J18">
-        <v>7.971650947164443</v>
+        <v>11.51083124886788</v>
       </c>
       <c r="K18">
-        <v>11.78548814601389</v>
+        <v>17.09945329563192</v>
       </c>
       <c r="L18">
-        <v>5.316810799459743</v>
+        <v>6.293755765531429</v>
       </c>
       <c r="M18">
-        <v>10.29050874743122</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.47912013834776</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.42461424384476</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.28454987341796</v>
+        <v>25.7767034528906</v>
       </c>
       <c r="C19">
-        <v>6.182509254113323</v>
+        <v>16.42309776745891</v>
       </c>
       <c r="D19">
-        <v>6.936946233626837</v>
+        <v>4.561383657062164</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>78.62966862048034</v>
+        <v>28.69957185842909</v>
       </c>
       <c r="G19">
-        <v>2.177972353530535</v>
+        <v>38.00547439834549</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.12484531131104</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.535180867945264</v>
       </c>
       <c r="J19">
-        <v>7.966157199851782</v>
+        <v>11.8676698835721</v>
       </c>
       <c r="K19">
-        <v>11.75107401084276</v>
+        <v>17.76083726814029</v>
       </c>
       <c r="L19">
-        <v>5.321452900793295</v>
+        <v>6.276287299994481</v>
       </c>
       <c r="M19">
-        <v>10.28243291863026</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.140917072002352</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.35286151956159</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.50020844761858</v>
+        <v>27.02481413663207</v>
       </c>
       <c r="C20">
-        <v>6.299142847593546</v>
+        <v>16.57101818102579</v>
       </c>
       <c r="D20">
-        <v>7.04342293796855</v>
+        <v>4.847463239639852</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>79.71886110028834</v>
+        <v>30.96670315655725</v>
       </c>
       <c r="G20">
-        <v>2.173771725629718</v>
+        <v>41.2752985659724</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.583272349835602</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.680774085510864</v>
       </c>
       <c r="J20">
-        <v>7.990961556662127</v>
+        <v>12.49084089567489</v>
       </c>
       <c r="K20">
-        <v>11.90639653405511</v>
+        <v>18.85880486912986</v>
       </c>
       <c r="L20">
-        <v>5.300807216821032</v>
+        <v>6.420761843505065</v>
       </c>
       <c r="M20">
-        <v>10.3195099168586</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.287608783783217</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.2095500095996</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.23066255587752</v>
+        <v>28.68103036661392</v>
       </c>
       <c r="C21">
-        <v>6.685025482887115</v>
+        <v>17.53626372733509</v>
       </c>
       <c r="D21">
-        <v>7.395122282275808</v>
+        <v>4.989445992316793</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>83.33566086683129</v>
+        <v>32.20447514948984</v>
       </c>
       <c r="G21">
-        <v>2.159710687106194</v>
+        <v>43.28021680033161</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.898818879300171</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.93299190120335</v>
       </c>
       <c r="J21">
-        <v>8.075820281447129</v>
+        <v>12.79519767124238</v>
       </c>
       <c r="K21">
-        <v>12.45661747980313</v>
+        <v>19.23234238489399</v>
       </c>
       <c r="L21">
-        <v>5.235835720322576</v>
+        <v>6.527033589449749</v>
       </c>
       <c r="M21">
-        <v>10.45730731247508</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.731054557280643</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.02066132762369</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.71243767311321</v>
+        <v>29.70166741636563</v>
       </c>
       <c r="C22">
-        <v>6.933244172070724</v>
+        <v>18.13420976520153</v>
       </c>
       <c r="D22">
-        <v>7.620671545043709</v>
+        <v>5.066089306450496</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.66830399764507</v>
+        <v>32.94899589255414</v>
       </c>
       <c r="G22">
-        <v>2.150536639796526</v>
+        <v>44.50221665042557</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.098058324752444</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.088351462248175</v>
       </c>
       <c r="J22">
-        <v>8.132526008402598</v>
+        <v>12.98272260379547</v>
       </c>
       <c r="K22">
-        <v>12.98740040874043</v>
+        <v>19.45939923668418</v>
       </c>
       <c r="L22">
-        <v>5.196807092871706</v>
+        <v>6.587551143924052</v>
       </c>
       <c r="M22">
-        <v>10.5576796014652</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.960737856238882</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.8999835657265</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.4548976636434</v>
+        <v>29.17918317738012</v>
       </c>
       <c r="C23">
-        <v>6.80109543467313</v>
+        <v>17.80041353000824</v>
       </c>
       <c r="D23">
-        <v>7.500671046689061</v>
+        <v>5.022593823921846</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>84.42611148833201</v>
+        <v>32.58659887445389</v>
       </c>
       <c r="G23">
-        <v>2.155433172268886</v>
+        <v>43.91048258288799</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.993347133697995</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.001750987122444</v>
       </c>
       <c r="J23">
-        <v>8.102139355583919</v>
+        <v>12.89481625000868</v>
       </c>
       <c r="K23">
-        <v>12.70522084581335</v>
+        <v>19.36473552534792</v>
       </c>
       <c r="L23">
-        <v>5.217312285635662</v>
+        <v>6.556922215296626</v>
       </c>
       <c r="M23">
-        <v>10.50313480331177</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.835288475679709</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.96267362155374</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.48834318833432</v>
+        <v>27.08233833639354</v>
       </c>
       <c r="C24">
-        <v>6.292761567225029</v>
+        <v>16.51627841720043</v>
       </c>
       <c r="D24">
-        <v>7.037598939917338</v>
+        <v>4.860604525989193</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>79.65920959115749</v>
+        <v>31.14620005091086</v>
       </c>
       <c r="G24">
-        <v>2.17400215042649</v>
+        <v>41.53955652933907</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.587366063904803</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.67489700277749</v>
       </c>
       <c r="J24">
-        <v>7.989593972912141</v>
+        <v>12.54654779220969</v>
       </c>
       <c r="K24">
-        <v>11.89783703114365</v>
+        <v>18.97218053359023</v>
       </c>
       <c r="L24">
-        <v>5.301924818629497</v>
+        <v>6.436355499916588</v>
       </c>
       <c r="M24">
-        <v>10.3174252033507</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.353445836008861</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.20518924349686</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.46497738154537</v>
+        <v>24.62972350824339</v>
       </c>
       <c r="C25">
-        <v>5.724378181376067</v>
+        <v>15.02987823033017</v>
       </c>
       <c r="D25">
-        <v>6.518436110832115</v>
+        <v>4.682619999431839</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>74.38058427242935</v>
+        <v>29.57093397581762</v>
       </c>
       <c r="G25">
-        <v>2.194244779116817</v>
+        <v>38.91416655708912</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.999024287079091</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.677427181548386</v>
       </c>
       <c r="J25">
-        <v>7.872842628645205</v>
+        <v>12.18155676752859</v>
       </c>
       <c r="K25">
-        <v>11.16615799757054</v>
+        <v>18.56932617710409</v>
       </c>
       <c r="L25">
-        <v>5.406962162829177</v>
+        <v>6.301610678591703</v>
       </c>
       <c r="M25">
-        <v>10.15848466988138</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.808924804853833</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.47200120468252</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.71329705539428</v>
+        <v>22.0650743777449</v>
       </c>
       <c r="C2">
-        <v>13.79674406896835</v>
+        <v>14.22348268186177</v>
       </c>
       <c r="D2">
-        <v>4.541862688152141</v>
+        <v>4.663872365806806</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.49218823937027</v>
+        <v>27.26452639158011</v>
       </c>
       <c r="G2">
-        <v>37.0974361257642</v>
+        <v>34.57927231902651</v>
       </c>
       <c r="H2">
-        <v>2.35443534782106</v>
+        <v>2.275091990143481</v>
       </c>
       <c r="I2">
-        <v>2.939195818955546</v>
+        <v>2.835127849035064</v>
       </c>
       <c r="J2">
-        <v>11.95466508217721</v>
+        <v>11.839258011956</v>
       </c>
       <c r="K2">
-        <v>18.35866533933152</v>
+        <v>17.31926273890096</v>
       </c>
       <c r="L2">
-        <v>6.202188522811696</v>
+        <v>14.30188333058737</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.42100518274611</v>
       </c>
       <c r="N2">
-        <v>8.37891015590656</v>
+        <v>6.130423148472622</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.67131519049781</v>
+        <v>8.575128726432176</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.59354391835856</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.28342497226662</v>
+        <v>20.69590528485986</v>
       </c>
       <c r="C3">
-        <v>12.9319893704423</v>
+        <v>13.28511742743906</v>
       </c>
       <c r="D3">
-        <v>4.448875291369707</v>
+        <v>4.57142256123385</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.70455149816788</v>
+        <v>26.58799203471325</v>
       </c>
       <c r="G3">
-        <v>35.75130169098875</v>
+        <v>33.45407365245261</v>
       </c>
       <c r="H3">
-        <v>2.607847720081879</v>
+        <v>2.506655269465543</v>
       </c>
       <c r="I3">
-        <v>3.14259692048728</v>
+        <v>3.012689174098664</v>
       </c>
       <c r="J3">
-        <v>11.78882243363946</v>
+        <v>11.67063511475074</v>
       </c>
       <c r="K3">
-        <v>18.18682259358748</v>
+        <v>17.22519638597398</v>
       </c>
       <c r="L3">
-        <v>6.129477573013311</v>
+        <v>14.34329566776504</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.24185915989624</v>
       </c>
       <c r="N3">
-        <v>8.081547706127665</v>
+        <v>6.066487689374823</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.81119916402748</v>
+        <v>8.273807312851785</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.70739611803896</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.35439949463182</v>
+        <v>19.80470100174156</v>
       </c>
       <c r="C4">
-        <v>12.37434615730549</v>
+        <v>12.67896429053005</v>
       </c>
       <c r="D4">
-        <v>4.391198551600767</v>
+        <v>4.514370286081179</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.21834014672674</v>
+        <v>26.16970370209749</v>
       </c>
       <c r="G4">
-        <v>34.91233900349651</v>
+        <v>32.75649374925484</v>
       </c>
       <c r="H4">
-        <v>2.76888598073543</v>
+        <v>2.653947624119952</v>
       </c>
       <c r="I4">
-        <v>3.272532838853643</v>
+        <v>3.126535446098305</v>
       </c>
       <c r="J4">
-        <v>11.68950454661704</v>
+        <v>11.56646095569922</v>
       </c>
       <c r="K4">
-        <v>18.08491350918565</v>
+        <v>17.16976181531582</v>
       </c>
       <c r="L4">
-        <v>6.083229370500147</v>
+        <v>14.36622512060098</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.15155639458325</v>
       </c>
       <c r="N4">
-        <v>7.894080568065824</v>
+        <v>6.02575501488372</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.89877369697971</v>
+        <v>8.084155352156841</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.77957817942653</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.95665678583577</v>
+        <v>19.42259250642217</v>
       </c>
       <c r="C5">
-        <v>12.14634609618722</v>
+        <v>12.43043738341774</v>
       </c>
       <c r="D5">
-        <v>4.368323516267871</v>
+        <v>4.491851007399656</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.00941741734365</v>
+        <v>25.98863123280577</v>
       </c>
       <c r="G5">
-        <v>34.54922843096077</v>
+        <v>32.45277250682071</v>
       </c>
       <c r="H5">
-        <v>2.836317001273133</v>
+        <v>2.715662930935535</v>
       </c>
       <c r="I5">
-        <v>3.329585919846874</v>
+        <v>3.177427350424727</v>
       </c>
       <c r="J5">
-        <v>11.64620556899693</v>
+        <v>11.52047482874738</v>
       </c>
       <c r="K5">
-        <v>18.03692075052211</v>
+        <v>17.14078149912287</v>
       </c>
       <c r="L5">
-        <v>6.063496566681042</v>
+        <v>14.36890333437217</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.11532432165492</v>
       </c>
       <c r="N5">
-        <v>7.817583955879058</v>
+        <v>6.008352320364534</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.93496371315015</v>
+        <v>8.006817749269507</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.8098643068778</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.88202002407857</v>
+        <v>19.35069834199151</v>
       </c>
       <c r="C6">
-        <v>12.11536114800054</v>
+        <v>12.39608639640697</v>
       </c>
       <c r="D6">
-        <v>4.36545677076551</v>
+        <v>4.489075397477643</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.96203571342623</v>
+        <v>25.94623758034525</v>
       </c>
       <c r="G6">
-        <v>34.46610298443193</v>
+        <v>32.38014875870849</v>
       </c>
       <c r="H6">
-        <v>2.848103736950381</v>
+        <v>2.726462158231429</v>
       </c>
       <c r="I6">
-        <v>3.34275514796979</v>
+        <v>3.190172808416096</v>
       </c>
       <c r="J6">
-        <v>11.63480909650855</v>
+        <v>11.50867540245478</v>
       </c>
       <c r="K6">
-        <v>18.02000679306887</v>
+        <v>17.12750666415727</v>
       </c>
       <c r="L6">
-        <v>6.059614416803947</v>
+        <v>14.36194772607387</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.10411932399406</v>
       </c>
       <c r="N6">
-        <v>7.80610067051536</v>
+        <v>6.004920139380301</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.94109461152202</v>
+        <v>7.99517308017246</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.81530559640674</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.32819810001581</v>
+        <v>19.7698173824506</v>
       </c>
       <c r="C7">
-        <v>12.39072811107624</v>
+        <v>12.68067072806993</v>
       </c>
       <c r="D7">
-        <v>4.393436102055913</v>
+        <v>4.52036033535789</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.18123706551757</v>
+        <v>26.11310196398558</v>
       </c>
       <c r="G7">
-        <v>34.84625017723549</v>
+        <v>32.77123161407401</v>
       </c>
       <c r="H7">
-        <v>2.771149108376632</v>
+        <v>2.656812847012117</v>
       </c>
       <c r="I7">
-        <v>3.282912402086323</v>
+        <v>3.139159645940257</v>
       </c>
       <c r="J7">
-        <v>11.67737792091491</v>
+        <v>11.50220561068594</v>
       </c>
       <c r="K7">
-        <v>18.05976702412658</v>
+        <v>17.13594285600355</v>
       </c>
       <c r="L7">
-        <v>6.081398462435875</v>
+        <v>14.33771151441751</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.12888003537519</v>
       </c>
       <c r="N7">
-        <v>7.896527092075329</v>
+        <v>6.023863314499073</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.8995952075454</v>
+        <v>8.085654600612862</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.7816859135742</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.20529392602825</v>
+        <v>21.54986413481601</v>
       </c>
       <c r="C8">
-        <v>13.52792671052515</v>
+        <v>13.88527353649263</v>
       </c>
       <c r="D8">
-        <v>4.513204002159718</v>
+        <v>4.647486229447344</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.17742908048062</v>
+        <v>26.92230558226989</v>
       </c>
       <c r="G8">
-        <v>36.55862162229809</v>
+        <v>34.36871909533476</v>
       </c>
       <c r="H8">
-        <v>2.442410386748259</v>
+        <v>2.357874634813837</v>
       </c>
       <c r="I8">
-        <v>3.02076904488565</v>
+        <v>2.912192945085941</v>
       </c>
       <c r="J8">
-        <v>11.88197992880064</v>
+        <v>11.59670235552471</v>
       </c>
       <c r="K8">
-        <v>18.26667101377876</v>
+        <v>17.22254928998282</v>
       </c>
       <c r="L8">
-        <v>6.175454804746276</v>
+        <v>14.26494873173491</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.3095550181298</v>
       </c>
       <c r="N8">
-        <v>8.281856529548346</v>
+        <v>6.106132183418259</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.71998223889629</v>
+        <v>8.473842004741874</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.63666455511892</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.51229491499834</v>
+        <v>24.70525519762478</v>
       </c>
       <c r="C9">
-        <v>15.51567243151394</v>
+        <v>16.03239933935234</v>
       </c>
       <c r="D9">
-        <v>4.738756268144099</v>
+        <v>4.875783307504915</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.15980663397361</v>
+        <v>28.61340154441347</v>
       </c>
       <c r="G9">
-        <v>39.90391538179141</v>
+        <v>37.24427187535148</v>
       </c>
       <c r="H9">
-        <v>1.837513954901211</v>
+        <v>1.806374313516811</v>
       </c>
       <c r="I9">
-        <v>2.53015004465761</v>
+        <v>2.483702247175117</v>
       </c>
       <c r="J9">
-        <v>12.32265245818173</v>
+        <v>11.98595950858451</v>
       </c>
       <c r="K9">
-        <v>18.74458138188635</v>
+        <v>17.49012426369523</v>
       </c>
       <c r="L9">
-        <v>6.350201876645374</v>
+        <v>14.16715678117024</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.86944078216886</v>
       </c>
       <c r="N9">
-        <v>8.989930409098502</v>
+        <v>6.259359536183299</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.37960697444252</v>
+        <v>9.192384973496033</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.3656905054468</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.61475648473465</v>
+        <v>26.66716844728929</v>
       </c>
       <c r="C10">
-        <v>16.87031801279366</v>
+        <v>17.41696858837705</v>
       </c>
       <c r="D10">
-        <v>4.877743678442563</v>
+        <v>5.035075844603659</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.39028537121778</v>
+        <v>29.54329973216519</v>
       </c>
       <c r="G10">
-        <v>41.99199931113112</v>
+        <v>39.43922256037079</v>
       </c>
       <c r="H10">
-        <v>1.692965818429845</v>
+        <v>1.683789010483984</v>
       </c>
       <c r="I10">
-        <v>2.754089467060497</v>
+        <v>2.763534936033594</v>
       </c>
       <c r="J10">
-        <v>12.60019175117739</v>
+        <v>11.93849787866399</v>
       </c>
       <c r="K10">
-        <v>19.00504981831915</v>
+        <v>17.55079520554319</v>
       </c>
       <c r="L10">
-        <v>6.452249219989708</v>
+        <v>13.97576313420006</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.24301210591555</v>
       </c>
       <c r="N10">
-        <v>9.384782556584337</v>
+        <v>6.34881141120347</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.1443339820346</v>
+        <v>9.58938443871021</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.19615496490595</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.89883085999731</v>
+        <v>26.88671638113572</v>
       </c>
       <c r="C11">
-        <v>17.60181148009219</v>
+        <v>17.99362783856265</v>
       </c>
       <c r="D11">
-        <v>4.739517287819718</v>
+        <v>4.912316550243322</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.32538256243066</v>
+        <v>28.30686623091253</v>
       </c>
       <c r="G11">
-        <v>40.65598162935856</v>
+        <v>39.04576809965813</v>
       </c>
       <c r="H11">
-        <v>2.699693514146646</v>
+        <v>2.684327717747243</v>
       </c>
       <c r="I11">
-        <v>2.845063263517929</v>
+        <v>2.840580830639189</v>
       </c>
       <c r="J11">
-        <v>12.26212934797804</v>
+        <v>11.06417678432731</v>
       </c>
       <c r="K11">
-        <v>18.2493439437556</v>
+        <v>16.74708562231341</v>
       </c>
       <c r="L11">
-        <v>6.389511170488182</v>
+        <v>13.29752282037696</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.74606377600609</v>
       </c>
       <c r="N11">
-        <v>8.728029083210213</v>
+        <v>6.309636619052698</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.12086690143895</v>
+        <v>8.910682870298473</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.25269855255775</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.72868440280297</v>
+        <v>26.71647022349897</v>
       </c>
       <c r="C12">
-        <v>17.92125589494871</v>
+        <v>18.21430050053307</v>
       </c>
       <c r="D12">
-        <v>4.600348819976562</v>
+        <v>4.76472119142733</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.19261025464586</v>
+        <v>27.15980860027631</v>
       </c>
       <c r="G12">
-        <v>39.14110260922784</v>
+        <v>38.06383135495487</v>
       </c>
       <c r="H12">
-        <v>4.030385394575696</v>
+        <v>4.033470601108287</v>
       </c>
       <c r="I12">
-        <v>2.853216823290063</v>
+        <v>2.845615258990812</v>
       </c>
       <c r="J12">
-        <v>11.92748331605122</v>
+        <v>10.53387534142347</v>
       </c>
       <c r="K12">
-        <v>17.58687920256307</v>
+        <v>16.12494802623854</v>
       </c>
       <c r="L12">
-        <v>6.391981024415168</v>
+        <v>12.82714626463966</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.28998757277129</v>
       </c>
       <c r="N12">
-        <v>8.096735968766801</v>
+        <v>6.333110336345621</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.17149689628971</v>
+        <v>8.262260421976812</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.34990609526062</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.168949548254</v>
+        <v>26.22513178320873</v>
       </c>
       <c r="C13">
-        <v>17.97568640850428</v>
+        <v>18.23289028290278</v>
       </c>
       <c r="D13">
-        <v>4.454842560399648</v>
+        <v>4.588298626300615</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.87070948981967</v>
+        <v>25.99105237832454</v>
       </c>
       <c r="G13">
-        <v>37.27604668482658</v>
+        <v>36.28327176006963</v>
       </c>
       <c r="H13">
-        <v>5.486700923060134</v>
+        <v>5.492326432033802</v>
       </c>
       <c r="I13">
-        <v>2.802607366472842</v>
+        <v>2.803009135829718</v>
       </c>
       <c r="J13">
-        <v>11.55471808159942</v>
+        <v>10.30395637981071</v>
       </c>
       <c r="K13">
-        <v>16.91726197602613</v>
+        <v>15.5891692447453</v>
       </c>
       <c r="L13">
-        <v>6.439681563097209</v>
+        <v>12.46548705566014</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.82980633127141</v>
       </c>
       <c r="N13">
-        <v>7.446019625862993</v>
+        <v>6.401865322166497</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.27817898843101</v>
+        <v>7.598359939842214</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.47135724285786</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.58779568129002</v>
+        <v>25.72309187146548</v>
       </c>
       <c r="C14">
-        <v>17.89962803344607</v>
+        <v>18.15872053910343</v>
       </c>
       <c r="D14">
-        <v>4.352546628686481</v>
+        <v>4.45756090696743</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.84325170443821</v>
+        <v>25.14446418575876</v>
       </c>
       <c r="G14">
-        <v>35.77858746758933</v>
+        <v>34.65118409593266</v>
       </c>
       <c r="H14">
-        <v>6.515180635173873</v>
+        <v>6.517618590213159</v>
       </c>
       <c r="I14">
-        <v>2.741987719254877</v>
+        <v>2.753297469066912</v>
       </c>
       <c r="J14">
-        <v>11.27300767752241</v>
+        <v>10.26086995988792</v>
       </c>
       <c r="K14">
-        <v>16.44180741570733</v>
+        <v>15.24620482242664</v>
       </c>
       <c r="L14">
-        <v>6.501375366087042</v>
+        <v>12.25223914677004</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.50298559052283</v>
       </c>
       <c r="N14">
-        <v>6.986238263451909</v>
+        <v>6.478033003047353</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.37927490184455</v>
+        <v>7.130800288532596</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.56636415541956</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.35463445916021</v>
+        <v>25.52282966631753</v>
       </c>
       <c r="C15">
-        <v>17.83015710097409</v>
+        <v>18.10127660070649</v>
       </c>
       <c r="D15">
-        <v>4.325428368708051</v>
+        <v>4.421218940732322</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.54296406315325</v>
+        <v>24.91982713576038</v>
       </c>
       <c r="G15">
-        <v>35.31913705876691</v>
+        <v>34.07725695985129</v>
       </c>
       <c r="H15">
-        <v>6.75456016554797</v>
+        <v>6.755802697239302</v>
       </c>
       <c r="I15">
-        <v>2.715817305743961</v>
+        <v>2.732705369558423</v>
       </c>
       <c r="J15">
-        <v>11.19335924812933</v>
+        <v>10.29819427899239</v>
       </c>
       <c r="K15">
-        <v>16.31796340130296</v>
+        <v>15.17125467985591</v>
       </c>
       <c r="L15">
-        <v>6.515923169510016</v>
+        <v>12.2133181509178</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.41725148832204</v>
       </c>
       <c r="N15">
-        <v>6.86965879466922</v>
+        <v>6.496486625596268</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.41360215111958</v>
+        <v>7.013119864319655</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.59278772141849</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.55285288356949</v>
+        <v>24.83484095327952</v>
       </c>
       <c r="C16">
-        <v>17.28119177740631</v>
+        <v>17.64607761503459</v>
       </c>
       <c r="D16">
-        <v>4.293278213125236</v>
+        <v>4.368946273332138</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.21663197870872</v>
+        <v>24.85450168413341</v>
       </c>
       <c r="G16">
-        <v>34.67422264019957</v>
+        <v>32.76698315904334</v>
       </c>
       <c r="H16">
-        <v>6.559230145363524</v>
+        <v>6.554929317783818</v>
       </c>
       <c r="I16">
-        <v>2.590741103578607</v>
+        <v>2.630171158815931</v>
       </c>
       <c r="J16">
-        <v>11.1352917324608</v>
+        <v>10.73207539669876</v>
       </c>
       <c r="K16">
-        <v>16.32289601078034</v>
+        <v>15.31093720407707</v>
       </c>
       <c r="L16">
-        <v>6.45745230246605</v>
+        <v>12.3792122421312</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.41056319930056</v>
       </c>
       <c r="N16">
-        <v>6.813450440657588</v>
+        <v>6.442049369745787</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.47931366877192</v>
+        <v>6.9646560563279</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.60387762425951</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.24965586886876</v>
+        <v>24.56481835670064</v>
       </c>
       <c r="C17">
-        <v>16.89363555386313</v>
+        <v>17.31258524607122</v>
       </c>
       <c r="D17">
-        <v>4.322578793618468</v>
+        <v>4.398069502350452</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.52581402902372</v>
+        <v>25.24026990653148</v>
       </c>
       <c r="G17">
-        <v>35.00246963507795</v>
+        <v>32.7611185656246</v>
       </c>
       <c r="H17">
-        <v>5.834291635522081</v>
+        <v>5.826079765641029</v>
       </c>
       <c r="I17">
-        <v>2.527093570839611</v>
+        <v>2.577345378719833</v>
       </c>
       <c r="J17">
-        <v>11.24262620769742</v>
+        <v>11.03459300977084</v>
       </c>
       <c r="K17">
-        <v>16.5788748586589</v>
+        <v>15.58958274808415</v>
       </c>
       <c r="L17">
-        <v>6.373630948807342</v>
+        <v>12.61979858436485</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.56712928521797</v>
       </c>
       <c r="N17">
-        <v>7.015850816605259</v>
+        <v>6.352969092816331</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.47757795001949</v>
+        <v>7.176377082573827</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.57017417421094</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.36637423640663</v>
+        <v>24.66363870124338</v>
       </c>
       <c r="C18">
-        <v>16.59450480889744</v>
+        <v>17.06299794819849</v>
       </c>
       <c r="D18">
-        <v>4.413928497877373</v>
+        <v>4.499727411792242</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.43706744491035</v>
+        <v>26.11793025651009</v>
       </c>
       <c r="G18">
-        <v>36.24318524195104</v>
+        <v>33.76182438630537</v>
       </c>
       <c r="H18">
-        <v>4.594521798667697</v>
+        <v>4.583114847279441</v>
       </c>
       <c r="I18">
-        <v>2.506630236077981</v>
+        <v>2.55829474457427</v>
       </c>
       <c r="J18">
-        <v>11.51083124886788</v>
+        <v>11.35790440166025</v>
       </c>
       <c r="K18">
-        <v>17.09945329563192</v>
+        <v>16.05902210338979</v>
       </c>
       <c r="L18">
-        <v>6.293755765531429</v>
+        <v>12.98533722227507</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.90548374307579</v>
       </c>
       <c r="N18">
-        <v>7.47912013834776</v>
+        <v>6.258534248893962</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.42461424384476</v>
+        <v>7.652199304345331</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.49313684814024</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.7767034528906</v>
+        <v>25.02436405920011</v>
       </c>
       <c r="C19">
-        <v>16.42309776745891</v>
+        <v>16.9433267553223</v>
       </c>
       <c r="D19">
-        <v>4.561383657062164</v>
+        <v>4.663866202852981</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.69957185842909</v>
+        <v>27.28003415967635</v>
       </c>
       <c r="G19">
-        <v>38.00547439834549</v>
+        <v>35.31740052348233</v>
       </c>
       <c r="H19">
-        <v>3.12484531131104</v>
+        <v>3.110828146819266</v>
       </c>
       <c r="I19">
-        <v>2.535180867945264</v>
+        <v>2.583462557559244</v>
       </c>
       <c r="J19">
-        <v>11.8676698835721</v>
+        <v>11.69440555311132</v>
       </c>
       <c r="K19">
-        <v>17.76083726814029</v>
+        <v>16.62440983230961</v>
       </c>
       <c r="L19">
-        <v>6.276287299994481</v>
+        <v>13.40884324541527</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.34343260276993</v>
       </c>
       <c r="N19">
-        <v>8.140917072002352</v>
+        <v>6.218864005580061</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.35286151956159</v>
+        <v>8.328211725437495</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.4014454040903</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.02481413663207</v>
+        <v>26.14092730387625</v>
       </c>
       <c r="C20">
-        <v>16.57101818102579</v>
+        <v>17.15077013822791</v>
       </c>
       <c r="D20">
-        <v>4.847463239639852</v>
+        <v>4.987377939876167</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.96670315655725</v>
+        <v>29.26810745525218</v>
       </c>
       <c r="G20">
-        <v>41.2752985659724</v>
+        <v>38.45460107505459</v>
       </c>
       <c r="H20">
-        <v>1.583272349835602</v>
+        <v>1.586858469882091</v>
       </c>
       <c r="I20">
-        <v>2.680774085510864</v>
+        <v>2.707618570514523</v>
       </c>
       <c r="J20">
-        <v>12.49084089567489</v>
+        <v>12.08984998010032</v>
       </c>
       <c r="K20">
-        <v>18.85880486912986</v>
+        <v>17.49772153309828</v>
       </c>
       <c r="L20">
-        <v>6.420761843505065</v>
+        <v>13.99970238686969</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.11170190178874</v>
       </c>
       <c r="N20">
-        <v>9.287608783783217</v>
+        <v>6.322023430573992</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.2095500095996</v>
+        <v>9.494033738947774</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.24315621595979</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.68103036661392</v>
+        <v>27.54800280561454</v>
       </c>
       <c r="C21">
-        <v>17.53626372733509</v>
+        <v>17.94091120570225</v>
       </c>
       <c r="D21">
-        <v>4.989445992316793</v>
+        <v>5.215970370656944</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.20447514948984</v>
+        <v>29.90861897118119</v>
       </c>
       <c r="G21">
-        <v>43.28021680033161</v>
+        <v>41.77119880878571</v>
       </c>
       <c r="H21">
-        <v>1.898818879300171</v>
+        <v>1.859960355915623</v>
       </c>
       <c r="I21">
-        <v>2.93299190120335</v>
+        <v>2.914395939891824</v>
       </c>
       <c r="J21">
-        <v>12.79519767124238</v>
+        <v>11.25043649134617</v>
       </c>
       <c r="K21">
-        <v>19.23234238489399</v>
+        <v>17.50884426275482</v>
       </c>
       <c r="L21">
-        <v>6.527033589449749</v>
+        <v>13.82673668087465</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.38457952681837</v>
       </c>
       <c r="N21">
-        <v>9.731054557280643</v>
+        <v>6.409896733858145</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.02066132762369</v>
+        <v>9.928513711789019</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.12323579046698</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.70166741636563</v>
+        <v>28.4055989351009</v>
       </c>
       <c r="C22">
-        <v>18.13420976520153</v>
+        <v>18.41286631468999</v>
       </c>
       <c r="D22">
-        <v>5.066089306450496</v>
+        <v>5.354268050769731</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.94899589255414</v>
+        <v>30.25060334696423</v>
       </c>
       <c r="G22">
-        <v>44.50221665042557</v>
+        <v>43.93775490500666</v>
       </c>
       <c r="H22">
-        <v>2.098058324752444</v>
+        <v>2.03201540779187</v>
       </c>
       <c r="I22">
-        <v>3.088351462248175</v>
+        <v>3.039210909210209</v>
       </c>
       <c r="J22">
-        <v>12.98272260379547</v>
+        <v>10.65618796469236</v>
       </c>
       <c r="K22">
-        <v>19.45939923668418</v>
+        <v>17.48932971389739</v>
       </c>
       <c r="L22">
-        <v>6.587551143924052</v>
+        <v>13.69390853360115</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.54894854084123</v>
       </c>
       <c r="N22">
-        <v>9.960737856238882</v>
+        <v>6.460546051151615</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.8999835657265</v>
+        <v>10.1508294060379</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.05359551831268</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.17918317738012</v>
+        <v>27.98730072935762</v>
       </c>
       <c r="C23">
-        <v>17.80041353000824</v>
+        <v>18.17374651295873</v>
       </c>
       <c r="D23">
-        <v>5.022593823921846</v>
+        <v>5.267937879898209</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.58659887445389</v>
+        <v>30.1490245644754</v>
       </c>
       <c r="G23">
-        <v>43.91048258288799</v>
+        <v>42.6660153504799</v>
       </c>
       <c r="H23">
-        <v>1.993347133697995</v>
+        <v>1.943006452708007</v>
       </c>
       <c r="I23">
-        <v>3.001750987122444</v>
+        <v>2.968569647720595</v>
       </c>
       <c r="J23">
-        <v>12.89481625000868</v>
+        <v>11.09858795708781</v>
       </c>
       <c r="K23">
-        <v>19.36473552534792</v>
+        <v>17.54995466084147</v>
       </c>
       <c r="L23">
-        <v>6.556922215296626</v>
+        <v>13.79988430618385</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.5016312618842</v>
       </c>
       <c r="N23">
-        <v>9.835288475679709</v>
+        <v>6.435254308455327</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.96267362155374</v>
+        <v>10.03118857340876</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.08372333789339</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.08233833639354</v>
+        <v>26.19432293574466</v>
       </c>
       <c r="C24">
-        <v>16.51627841720043</v>
+        <v>17.10201781664145</v>
       </c>
       <c r="D24">
-        <v>4.860604525989193</v>
+        <v>5.001632938391911</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.14620005091086</v>
+        <v>29.43917537341457</v>
       </c>
       <c r="G24">
-        <v>41.53955652933907</v>
+        <v>38.68726332913266</v>
       </c>
       <c r="H24">
-        <v>1.587366063904803</v>
+        <v>1.59062256327405</v>
       </c>
       <c r="I24">
-        <v>2.67489700277749</v>
+        <v>2.699052816618325</v>
       </c>
       <c r="J24">
-        <v>12.54654779220969</v>
+        <v>12.14930970479554</v>
       </c>
       <c r="K24">
-        <v>18.97218053359023</v>
+        <v>17.60028159904038</v>
       </c>
       <c r="L24">
-        <v>6.436355499916588</v>
+        <v>14.07765109742015</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.18926081128346</v>
       </c>
       <c r="N24">
-        <v>9.353445836008861</v>
+        <v>6.334625745507641</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.20518924349686</v>
+        <v>9.561385024449725</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.23316616709288</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.62972350824339</v>
+        <v>23.87486422671759</v>
       </c>
       <c r="C25">
-        <v>15.02987823033017</v>
+        <v>15.52404493968638</v>
       </c>
       <c r="D25">
-        <v>4.682619999431839</v>
+        <v>4.813878206691494</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.57093397581762</v>
+        <v>28.13235786848016</v>
       </c>
       <c r="G25">
-        <v>38.91416655708912</v>
+        <v>36.27611171132888</v>
       </c>
       <c r="H25">
-        <v>1.999024287079091</v>
+        <v>1.952538849932378</v>
       </c>
       <c r="I25">
-        <v>2.677427181548386</v>
+        <v>2.616485306631407</v>
       </c>
       <c r="J25">
-        <v>12.18155676752859</v>
+        <v>11.93334097582588</v>
       </c>
       <c r="K25">
-        <v>18.56932617710409</v>
+        <v>17.38968423177991</v>
       </c>
       <c r="L25">
-        <v>6.301610678591703</v>
+        <v>14.17611791936703</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.68284079644361</v>
       </c>
       <c r="N25">
-        <v>8.808924804853833</v>
+        <v>6.217126739138999</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.47200120468252</v>
+        <v>9.009447594663817</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.43917035652212</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
